--- a/data/xlsx_all/chineseMedicalData.xlsx
+++ b/data/xlsx_all/chineseMedicalData.xlsx
@@ -5938,13 +5938,7 @@
     <t>1、脾弱黄肿。用苍术二斤（淘米水泡两夜）、黄酒曲四两，同炒成赤色，加绿矾一斤，拦醋，晒干，装入瓶中火煅，取出研细，再加醋和糊成做成丸子，如梧子大　每服三、四十丸，好酒或米汤送下。一天服二至三次。此方名“伐木丸”，与平胃散同用，亦治肝气胀满。2、喉风肿闭。用绿矾一斤，拌入醋三斤中，晒干，研末吹喉部。痰涎流出后，以良姜末少许，放在茶内漱口咽下。3、眼睛红烂。用红枣五个，去核，填入绿矾，火上煨熟，加水两碗、桃柳心各七个，一起煎浓。每取少许点眼。4、疟疾呕吐（少阴疟）。用绿矾一钱，干姜泡过，加姜制半夏半两，共研为末，每服半钱。发病日清晨服，醋汤送下。5、大便不能。用绿矾一钱，巴霜二个，同研细，放入鸡蛋内搅匀。封好蛋壳破口，湿纸包旧，煨熟，同酒吃下。6、大便下血多年。用绿矾四两，入砂锅内，封牢，煅红，取出加青盐、生硫磺各一两，研匀，再入锅中封煅一次。冷定加熟附子末一两，共研细，以粟米粥做成蛫子，如梧子大。每服三十丸，空心服，米汤或温酒送下。7、妇女血崩。用绿矾二两、水银粉一钱，共研细，滴水做成丸子，如梧子大。每服二、三十丸，新汲水送下。8、腹中食积。用绿矾二两，研细，加醋一大碗，在瓷器内熬煮，以要搅成膏，再加赤脚乌一两，研成丸子，如绿豆大。每服五丸，空心服，温酒送下。9、走马疳疮（按：即走马牙疳。病处流动，速如走马，侵蚀口鼻，穿透骨腮，全齿剥落，出血流脓）。把绿矾放入锅中，用炭火煅红，加醋拌匀，如此三次，研细，再放入少许麝香，调匀后敷患处。用药前以温水把口漱净。10、白秃头疮。用绿矾和楝树子炼研涂搽。11、小儿头疮。用煅绿矾一两、淡豉一两（炒黑）、腻粉二钱，研匀搽疮上。搽前用桑木灰淋汤洗净头部。12、耳生烂疮。用枣子去核，填入绿矾，火煅后研细，香油调敷。13、汤火伤。用凉水冲绿矾粉浇伤处，痛立止，肿亦消。14、癣疮作痒。用螺蛳十四个、槿树皮末一两，蒸熟，加入绿矾（煅过）三钱，一起捣匀，搽患处。15、小儿疳虫病（病人喜食土和某些生物）。用绿矾研细，加猪胆汁调成丸子，如绿豆大，每服五至七丸，米汤送下。16、甲疸（剪趾甲时误伤肌肉，或趾甲长入肉内，都能形成疮肿，流黄水，烂五趾，痛如火烧）。用绿矾五两，煅到汁尽，研细收存。先以盐水洗疮，后以矾粉厚敷疮上。每到如此洗敷，十日可治好。</t>
   </si>
   <si>
-    <t>黄矾</t>
-  </si>
-  <si>
     <t>酸涩、咸、有毒。</t>
-  </si>
-  <si>
-    <t>1、耳。用黄矾二两烧枯，取二钱，棉裹成球，塞耳内。2、身上瘢痕。用黄矾（烧令汁尽）、胡粉（炒黄）各八分，研细，加猪油，共捣成泥。先以粗布擦瘢，感到疼痛时，把药涂上，涂药五次以后，再用老鹰粪、燕窠草烧祳灰等分，加人乳调匀涂瘢。皮肤能恢复正常。3、急疳蚀齿。用黄矾、绿矾各半钱，白矾（烧过）一钱，麝香一分，共研为末敷患处，吐出流涎，病渐愈。</t>
   </si>
   <si>
     <t>鳞部</t>
@@ -8147,6 +8141,14 @@
   </si>
   <si>
     <t>1、咽喉闭痛。用箬叶、灯心草，烧灰，等分吹喉部，有效。2、肺壅、流鼻血。用箬叶（烧灰）、白面各三钱，研匀，清水冲服二钱。3、月经不止。用箬叶灰、蚕纸灰，等分为末。每服二钱，米汤送下。4、肠风便血。用箬叶烧存性，每次服三匙，空心服，糯米汤送下。药中加少许麝香亦可。5、小便不通。用干箬叶一两，烧灰，加滑石半两，研为末。每服三钱，米汤送下。6、妇女催乳。用端阳节包粽子的箬叶烧灰，每服二钱，酒送下。累效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄矾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、耳出脓水。用黄矾二两烧枯，取二钱，棉裹成球，塞耳内。2、身上瘢痕。用黄矾（烧令汁尽）、胡粉（炒黄）各八分，研细，加猪油，共捣成泥。先以粗布擦瘢，感到疼痛时，把药涂上，涂药五次以后，再用老鹰粪、燕窠草烧祳灰等分，加人乳调匀涂瘢。皮肤能恢复正常。3、急疳蚀齿。用黄矾、绿矾各半钱，白矾（烧过）一钱，麝香一分，共研为末敷患处，吐出流涎，病渐愈。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8498,8 +8500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E771"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A548" workbookViewId="0">
+      <selection activeCell="E565" sqref="E565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8552,7 +8554,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -8801,7 +8803,7 @@
         <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -8880,7 +8882,7 @@
         <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -9126,7 +9128,7 @@
         <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -9601,7 +9603,7 @@
         <v>241</v>
       </c>
       <c r="E67" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
@@ -10227,7 +10229,7 @@
         <v>369</v>
       </c>
       <c r="E104" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
@@ -11452,7 +11454,7 @@
         <v>633</v>
       </c>
       <c r="E178" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
@@ -12858,7 +12860,7 @@
         <v>938</v>
       </c>
       <c r="E263" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.15">
@@ -13515,7 +13517,7 @@
         <v>254</v>
       </c>
       <c r="E302" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.15">
@@ -16488,7 +16490,7 @@
         <v>1706</v>
       </c>
       <c r="E488" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.15">
@@ -17761,787 +17763,787 @@
         <v>1762</v>
       </c>
       <c r="B565" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D565" t="s">
         <v>1966</v>
       </c>
-      <c r="D565" t="s">
-        <v>1967</v>
-      </c>
       <c r="E565" t="s">
-        <v>1968</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A566" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C566" t="s">
         <v>1969</v>
       </c>
-      <c r="B566" t="s">
+      <c r="D566" t="s">
         <v>1970</v>
       </c>
-      <c r="C566" t="s">
+      <c r="E566" t="s">
         <v>1971</v>
-      </c>
-      <c r="D566" t="s">
-        <v>1972</v>
-      </c>
-      <c r="E566" t="s">
-        <v>1973</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A567" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B567" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C567" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D567" t="s">
         <v>1974</v>
       </c>
-      <c r="C567" t="s">
+      <c r="E567" t="s">
         <v>1975</v>
-      </c>
-      <c r="D567" t="s">
-        <v>1976</v>
-      </c>
-      <c r="E567" t="s">
-        <v>1977</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A568" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B568" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D568" t="s">
         <v>1978</v>
       </c>
-      <c r="C568" t="s">
+      <c r="E568" t="s">
         <v>1979</v>
-      </c>
-      <c r="D568" t="s">
-        <v>1980</v>
-      </c>
-      <c r="E568" t="s">
-        <v>1981</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A569" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B569" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D569" t="s">
         <v>1982</v>
       </c>
-      <c r="C569" t="s">
+      <c r="E569" t="s">
         <v>1983</v>
-      </c>
-      <c r="D569" t="s">
-        <v>1984</v>
-      </c>
-      <c r="E569" t="s">
-        <v>1985</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A570" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B570" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="C570" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="D570" t="s">
         <v>1324</v>
       </c>
       <c r="E570" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A571" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B571" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D571" t="s">
         <v>1989</v>
       </c>
-      <c r="C571" t="s">
+      <c r="E571" t="s">
         <v>1990</v>
-      </c>
-      <c r="D571" t="s">
-        <v>1991</v>
-      </c>
-      <c r="E571" t="s">
-        <v>1992</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A572" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B572" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D572" t="s">
         <v>1993</v>
       </c>
-      <c r="C572" t="s">
+      <c r="E572" t="s">
         <v>1994</v>
-      </c>
-      <c r="D572" t="s">
-        <v>1995</v>
-      </c>
-      <c r="E572" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A573" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B573" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D573" t="s">
         <v>1997</v>
       </c>
-      <c r="C573" t="s">
+      <c r="E573" t="s">
         <v>1998</v>
-      </c>
-      <c r="D573" t="s">
-        <v>1999</v>
-      </c>
-      <c r="E573" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B574" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C574" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D574" t="s">
         <v>2001</v>
       </c>
-      <c r="C574" t="s">
+      <c r="E574" t="s">
         <v>2002</v>
-      </c>
-      <c r="D574" t="s">
-        <v>2003</v>
-      </c>
-      <c r="E574" t="s">
-        <v>2004</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B575" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C575" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D575" t="s">
         <v>2005</v>
       </c>
-      <c r="C575" t="s">
+      <c r="E575" t="s">
         <v>2006</v>
-      </c>
-      <c r="D575" t="s">
-        <v>2007</v>
-      </c>
-      <c r="E575" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B576" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C576" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D576" t="s">
         <v>2009</v>
       </c>
-      <c r="C576" t="s">
+      <c r="E576" t="s">
         <v>2010</v>
-      </c>
-      <c r="D576" t="s">
-        <v>2011</v>
-      </c>
-      <c r="E576" t="s">
-        <v>2012</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A577" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B577" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C577" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D577" t="s">
         <v>2013</v>
       </c>
-      <c r="C577" t="s">
+      <c r="E577" t="s">
         <v>2014</v>
-      </c>
-      <c r="D577" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E577" t="s">
-        <v>2016</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A578" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B578" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C578" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D578" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E578" t="s">
         <v>2017</v>
-      </c>
-      <c r="C578" t="s">
-        <v>2018</v>
-      </c>
-      <c r="D578" t="s">
-        <v>2011</v>
-      </c>
-      <c r="E578" t="s">
-        <v>2019</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A579" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B579" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D579" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E579" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B580" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C580" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D580" t="s">
         <v>2022</v>
       </c>
-      <c r="C580" t="s">
+      <c r="E580" t="s">
         <v>2023</v>
-      </c>
-      <c r="D580" t="s">
-        <v>2024</v>
-      </c>
-      <c r="E580" t="s">
-        <v>2025</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A581" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B581" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C581" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D581" t="s">
         <v>2026</v>
       </c>
-      <c r="C581" t="s">
+      <c r="E581" t="s">
         <v>2027</v>
-      </c>
-      <c r="D581" t="s">
-        <v>2028</v>
-      </c>
-      <c r="E581" t="s">
-        <v>2029</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A582" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B582" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D582" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E582" t="s">
         <v>2030</v>
-      </c>
-      <c r="D582" t="s">
-        <v>2031</v>
-      </c>
-      <c r="E582" t="s">
-        <v>2032</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A583" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B583" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C583" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D583" t="s">
         <v>2033</v>
       </c>
-      <c r="C583" t="s">
+      <c r="E583" t="s">
         <v>2034</v>
-      </c>
-      <c r="D583" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E583" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A584" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B584" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C584" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D584" t="s">
         <v>2037</v>
       </c>
-      <c r="C584" t="s">
+      <c r="E584" t="s">
         <v>2038</v>
-      </c>
-      <c r="D584" t="s">
-        <v>2039</v>
-      </c>
-      <c r="E584" t="s">
-        <v>2040</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A585" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B585" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C585" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D585" t="s">
         <v>2041</v>
       </c>
-      <c r="C585" t="s">
+      <c r="E585" t="s">
         <v>2042</v>
-      </c>
-      <c r="D585" t="s">
-        <v>2043</v>
-      </c>
-      <c r="E585" t="s">
-        <v>2044</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A586" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B586" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="C586" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="D586" t="s">
         <v>133</v>
       </c>
       <c r="E586" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A587" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B587" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C587" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D587" t="s">
         <v>2048</v>
       </c>
-      <c r="C587" t="s">
+      <c r="E587" t="s">
         <v>2049</v>
-      </c>
-      <c r="D587" t="s">
-        <v>2050</v>
-      </c>
-      <c r="E587" t="s">
-        <v>2051</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A588" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B588" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C588" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D588" t="s">
         <v>2052</v>
       </c>
-      <c r="C588" t="s">
+      <c r="E588" t="s">
         <v>2053</v>
-      </c>
-      <c r="D588" t="s">
-        <v>2054</v>
-      </c>
-      <c r="E588" t="s">
-        <v>2055</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A589" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B589" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D589" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E589" t="s">
         <v>2056</v>
-      </c>
-      <c r="D589" t="s">
-        <v>2057</v>
-      </c>
-      <c r="E589" t="s">
-        <v>2058</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A590" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B590" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C590" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D590" t="s">
         <v>2059</v>
       </c>
-      <c r="C590" t="s">
+      <c r="E590" t="s">
         <v>2060</v>
-      </c>
-      <c r="D590" t="s">
-        <v>2061</v>
-      </c>
-      <c r="E590" t="s">
-        <v>2062</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A591" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B591" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C591" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D591" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E591" t="s">
         <v>2063</v>
-      </c>
-      <c r="C591" t="s">
-        <v>2064</v>
-      </c>
-      <c r="D591" t="s">
-        <v>2061</v>
-      </c>
-      <c r="E591" t="s">
-        <v>2065</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A592" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B592" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="E592" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A593" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B593" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D593" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E593" t="s">
         <v>2068</v>
-      </c>
-      <c r="D593" t="s">
-        <v>2069</v>
-      </c>
-      <c r="E593" t="s">
-        <v>2070</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A594" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B594" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="D594" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="E594" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A595" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B595" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C595" t="s">
         <v>2073</v>
       </c>
-      <c r="B595" t="s">
+      <c r="D595" t="s">
         <v>2074</v>
       </c>
-      <c r="C595" t="s">
+      <c r="E595" t="s">
         <v>2075</v>
-      </c>
-      <c r="D595" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E595" t="s">
-        <v>2077</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A596" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B596" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="C596" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="D596" t="s">
         <v>48</v>
       </c>
       <c r="E596" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B597" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C597" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D597" t="s">
         <v>2081</v>
       </c>
-      <c r="C597" t="s">
+      <c r="E597" t="s">
         <v>2082</v>
-      </c>
-      <c r="D597" t="s">
-        <v>2083</v>
-      </c>
-      <c r="E597" t="s">
-        <v>2084</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B598" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C598" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D598" t="s">
         <v>2085</v>
       </c>
-      <c r="C598" t="s">
+      <c r="E598" t="s">
         <v>2086</v>
-      </c>
-      <c r="D598" t="s">
-        <v>2087</v>
-      </c>
-      <c r="E598" t="s">
-        <v>2088</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B599" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C599" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D599" t="s">
         <v>2089</v>
       </c>
-      <c r="C599" t="s">
+      <c r="E599" t="s">
         <v>2090</v>
-      </c>
-      <c r="D599" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E599" t="s">
-        <v>2092</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A600" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B600" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C600" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D600" t="s">
         <v>2093</v>
       </c>
-      <c r="C600" t="s">
+      <c r="E600" t="s">
         <v>2094</v>
-      </c>
-      <c r="D600" t="s">
-        <v>2095</v>
-      </c>
-      <c r="E600" t="s">
-        <v>2096</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A601" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B601" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="C601" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="D601" t="s">
         <v>48</v>
       </c>
       <c r="E601" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A602" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B602" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C602" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D602" t="s">
         <v>2100</v>
       </c>
-      <c r="C602" t="s">
+      <c r="E602" t="s">
         <v>2101</v>
-      </c>
-      <c r="D602" t="s">
-        <v>2102</v>
-      </c>
-      <c r="E602" t="s">
-        <v>2103</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A603" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B603" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D603" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E603" t="s">
         <v>2104</v>
-      </c>
-      <c r="D603" t="s">
-        <v>2105</v>
-      </c>
-      <c r="E603" t="s">
-        <v>2106</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A604" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B604" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D604" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E604" t="s">
         <v>2107</v>
-      </c>
-      <c r="D604" t="s">
-        <v>2108</v>
-      </c>
-      <c r="E604" t="s">
-        <v>2109</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A605" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B605" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C605" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D605" t="s">
         <v>2110</v>
       </c>
-      <c r="C605" t="s">
+      <c r="E605" t="s">
         <v>2111</v>
-      </c>
-      <c r="D605" t="s">
-        <v>2112</v>
-      </c>
-      <c r="E605" t="s">
-        <v>2113</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A606" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B606" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C606" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D606" t="s">
         <v>2114</v>
       </c>
-      <c r="C606" t="s">
+      <c r="E606" t="s">
         <v>2115</v>
-      </c>
-      <c r="D606" t="s">
-        <v>2116</v>
-      </c>
-      <c r="E606" t="s">
-        <v>2117</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A607" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B607" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C607" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D607" t="s">
         <v>2118</v>
       </c>
-      <c r="C607" t="s">
+      <c r="E607" t="s">
         <v>2119</v>
-      </c>
-      <c r="D607" t="s">
-        <v>2120</v>
-      </c>
-      <c r="E607" t="s">
-        <v>2121</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A608" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B608" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="C608" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="D608" t="s">
         <v>118</v>
       </c>
       <c r="E608" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A609" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B609" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="C609" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="D609" t="s">
         <v>1427</v>
       </c>
       <c r="E609" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A610" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B610" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="D610" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="E610" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A611" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B611" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C611" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D611" t="s">
         <v>2130</v>
       </c>
-      <c r="C611" t="s">
+      <c r="E611" t="s">
         <v>2131</v>
-      </c>
-      <c r="D611" t="s">
-        <v>2132</v>
-      </c>
-      <c r="E611" t="s">
-        <v>2133</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A612" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B612" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C612" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D612" t="s">
         <v>2134</v>
       </c>
-      <c r="C612" t="s">
+      <c r="E612" t="s">
         <v>2135</v>
-      </c>
-      <c r="D612" t="s">
-        <v>2136</v>
-      </c>
-      <c r="E612" t="s">
-        <v>2137</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A613" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B613" t="s">
         <v>405</v>
@@ -18558,2598 +18560,2598 @@
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A614" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B614" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="C614" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="D614" t="s">
         <v>354</v>
       </c>
       <c r="E614" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A615" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B615" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="C615" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="D615" t="s">
         <v>1427</v>
       </c>
       <c r="E615" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A616" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B616" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="C616" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="D616" t="s">
         <v>1427</v>
       </c>
       <c r="E616" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A617" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B617" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="C617" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D617" t="s">
         <v>114</v>
       </c>
       <c r="E617" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A618" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B618" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C618" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D618" t="s">
         <v>2150</v>
       </c>
-      <c r="C618" t="s">
+      <c r="E618" t="s">
         <v>2151</v>
-      </c>
-      <c r="D618" t="s">
-        <v>2152</v>
-      </c>
-      <c r="E618" t="s">
-        <v>2153</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A619" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B619" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C619" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D619" t="s">
         <v>2154</v>
       </c>
-      <c r="C619" t="s">
+      <c r="E619" t="s">
         <v>2155</v>
-      </c>
-      <c r="D619" t="s">
-        <v>2156</v>
-      </c>
-      <c r="E619" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A620" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B620" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="C620" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="D620" t="s">
         <v>118</v>
       </c>
       <c r="E620" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A621" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B621" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C621" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D621" t="s">
         <v>2161</v>
       </c>
-      <c r="C621" t="s">
+      <c r="E621" t="s">
         <v>2162</v>
-      </c>
-      <c r="D621" t="s">
-        <v>2163</v>
-      </c>
-      <c r="E621" t="s">
-        <v>2164</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A622" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B622" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C622" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D622" t="s">
         <v>2165</v>
       </c>
-      <c r="C622" t="s">
+      <c r="E622" t="s">
         <v>2166</v>
-      </c>
-      <c r="D622" t="s">
-        <v>2167</v>
-      </c>
-      <c r="E622" t="s">
-        <v>2168</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A623" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B623" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C623" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D623" t="s">
         <v>2169</v>
       </c>
-      <c r="C623" t="s">
+      <c r="E623" t="s">
         <v>2170</v>
-      </c>
-      <c r="D623" t="s">
-        <v>2171</v>
-      </c>
-      <c r="E623" t="s">
-        <v>2172</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A624" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B624" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="C624" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="D624" t="s">
         <v>271</v>
       </c>
       <c r="E624" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B625" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C625" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D625" t="s">
         <v>2176</v>
       </c>
-      <c r="C625" t="s">
+      <c r="E625" t="s">
         <v>2177</v>
-      </c>
-      <c r="D625" t="s">
-        <v>2178</v>
-      </c>
-      <c r="E625" t="s">
-        <v>2179</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B626" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D626" t="s">
+        <v>2179</v>
+      </c>
+      <c r="E626" t="s">
         <v>2180</v>
-      </c>
-      <c r="D626" t="s">
-        <v>2181</v>
-      </c>
-      <c r="E626" t="s">
-        <v>2182</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A627" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B627" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C627" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D627" t="s">
         <v>2183</v>
       </c>
-      <c r="C627" t="s">
+      <c r="E627" t="s">
         <v>2184</v>
-      </c>
-      <c r="D627" t="s">
-        <v>2185</v>
-      </c>
-      <c r="E627" t="s">
-        <v>2186</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A628" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B628" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C628" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D628" t="s">
         <v>2187</v>
       </c>
-      <c r="C628" t="s">
+      <c r="E628" t="s">
         <v>2188</v>
-      </c>
-      <c r="D628" t="s">
-        <v>2189</v>
-      </c>
-      <c r="E628" t="s">
-        <v>2190</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A629" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B629" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C629" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D629" t="s">
         <v>2191</v>
       </c>
-      <c r="C629" t="s">
+      <c r="E629" t="s">
         <v>2192</v>
-      </c>
-      <c r="D629" t="s">
-        <v>2193</v>
-      </c>
-      <c r="E629" t="s">
-        <v>2194</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A630" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B630" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D630" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E630" t="s">
         <v>2195</v>
-      </c>
-      <c r="D630" t="s">
-        <v>2196</v>
-      </c>
-      <c r="E630" t="s">
-        <v>2197</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A631" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B631" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C631" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D631" t="s">
         <v>2198</v>
       </c>
-      <c r="C631" t="s">
+      <c r="E631" t="s">
         <v>2199</v>
-      </c>
-      <c r="D631" t="s">
-        <v>2200</v>
-      </c>
-      <c r="E631" t="s">
-        <v>2201</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A632" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B632" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D632" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E632" t="s">
         <v>2202</v>
-      </c>
-      <c r="D632" t="s">
-        <v>2203</v>
-      </c>
-      <c r="E632" t="s">
-        <v>2204</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A633" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B633" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C633" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D633" t="s">
         <v>2205</v>
       </c>
-      <c r="C633" t="s">
+      <c r="E633" t="s">
         <v>2206</v>
-      </c>
-      <c r="D633" t="s">
-        <v>2207</v>
-      </c>
-      <c r="E633" t="s">
-        <v>2208</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A634" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B634" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C634" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D634" t="s">
         <v>2209</v>
       </c>
-      <c r="C634" t="s">
+      <c r="E634" t="s">
         <v>2210</v>
-      </c>
-      <c r="D634" t="s">
-        <v>2211</v>
-      </c>
-      <c r="E634" t="s">
-        <v>2212</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A635" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B635" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="C635" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="D635" t="s">
         <v>354</v>
       </c>
       <c r="E635" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A636" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B636" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D636" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E636" t="s">
         <v>2216</v>
-      </c>
-      <c r="D636" t="s">
-        <v>2217</v>
-      </c>
-      <c r="E636" t="s">
-        <v>2218</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A637" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B637" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="D637" t="s">
         <v>48</v>
       </c>
       <c r="E637" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A638" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B638" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C638" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D638" t="s">
         <v>2221</v>
       </c>
-      <c r="C638" t="s">
+      <c r="E638" t="s">
         <v>2222</v>
-      </c>
-      <c r="D638" t="s">
-        <v>2223</v>
-      </c>
-      <c r="E638" t="s">
-        <v>2224</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A639" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B639" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="C639" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="D639" t="s">
         <v>114</v>
       </c>
       <c r="E639" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A640" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B640" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="C640" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="D640" t="s">
         <v>271</v>
       </c>
       <c r="E640" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A641" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B641" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C641" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D641" t="s">
         <v>2231</v>
       </c>
-      <c r="C641" t="s">
+      <c r="E641" t="s">
         <v>2232</v>
-      </c>
-      <c r="D641" t="s">
-        <v>2233</v>
-      </c>
-      <c r="E641" t="s">
-        <v>2234</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A642" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B642" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D642" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E642" t="s">
         <v>2235</v>
-      </c>
-      <c r="D642" t="s">
-        <v>2236</v>
-      </c>
-      <c r="E642" t="s">
-        <v>2237</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A643" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B643" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="C643" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="D643" t="s">
         <v>354</v>
       </c>
       <c r="E643" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A644" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B644" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="D644" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="E644" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A645" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B645" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C645" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D645" t="s">
         <v>2243</v>
       </c>
-      <c r="C645" t="s">
+      <c r="E645" t="s">
         <v>2244</v>
-      </c>
-      <c r="D645" t="s">
-        <v>2245</v>
-      </c>
-      <c r="E645" t="s">
-        <v>2246</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A646" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B646" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="C646" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="D646" t="s">
         <v>400</v>
       </c>
       <c r="E646" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A647" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B647" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C647" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="D647" t="s">
         <v>1316</v>
       </c>
       <c r="E647" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A648" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B648" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="D648" t="s">
         <v>906</v>
       </c>
       <c r="E648" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A649" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B649" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="C649" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="D649" t="s">
         <v>114</v>
       </c>
       <c r="E649" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A650" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B650" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C650" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D650" t="s">
         <v>2258</v>
       </c>
-      <c r="C650" t="s">
+      <c r="E650" t="s">
         <v>2259</v>
-      </c>
-      <c r="D650" t="s">
-        <v>2260</v>
-      </c>
-      <c r="E650" t="s">
-        <v>2261</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A651" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B651" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C651" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D651" t="s">
         <v>2262</v>
       </c>
-      <c r="C651" t="s">
+      <c r="E651" t="s">
         <v>2263</v>
-      </c>
-      <c r="D651" t="s">
-        <v>2264</v>
-      </c>
-      <c r="E651" t="s">
-        <v>2265</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A652" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B652" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D652" t="s">
+        <v>2265</v>
+      </c>
+      <c r="E652" t="s">
         <v>2266</v>
-      </c>
-      <c r="D652" t="s">
-        <v>2267</v>
-      </c>
-      <c r="E652" t="s">
-        <v>2268</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A653" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B653" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C653" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D653" t="s">
         <v>2269</v>
       </c>
-      <c r="C653" t="s">
+      <c r="E653" t="s">
         <v>2270</v>
-      </c>
-      <c r="D653" t="s">
-        <v>2271</v>
-      </c>
-      <c r="E653" t="s">
-        <v>2272</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A654" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B654" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C654" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D654" t="s">
         <v>2273</v>
       </c>
-      <c r="C654" t="s">
+      <c r="E654" t="s">
         <v>2274</v>
-      </c>
-      <c r="D654" t="s">
-        <v>2275</v>
-      </c>
-      <c r="E654" t="s">
-        <v>2276</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A655" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B655" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="C655" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="D655" t="s">
         <v>354</v>
       </c>
       <c r="E655" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A656" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B656" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C656" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D656" t="s">
         <v>2280</v>
       </c>
-      <c r="C656" t="s">
+      <c r="E656" t="s">
         <v>2281</v>
-      </c>
-      <c r="D656" t="s">
-        <v>2282</v>
-      </c>
-      <c r="E656" t="s">
-        <v>2283</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A657" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B657" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C657" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D657" t="s">
         <v>2284</v>
       </c>
-      <c r="C657" t="s">
+      <c r="E657" t="s">
         <v>2285</v>
-      </c>
-      <c r="D657" t="s">
-        <v>2286</v>
-      </c>
-      <c r="E657" t="s">
-        <v>2287</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A658" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B658" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="C658" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="D658" t="s">
         <v>68</v>
       </c>
       <c r="E658" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A659" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B659" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C659" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D659" t="s">
         <v>2291</v>
       </c>
-      <c r="C659" t="s">
+      <c r="E659" t="s">
         <v>2292</v>
-      </c>
-      <c r="D659" t="s">
-        <v>2293</v>
-      </c>
-      <c r="E659" t="s">
-        <v>2294</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A660" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B660" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C660" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D660" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E660" t="s">
         <v>2295</v>
-      </c>
-      <c r="C660" t="s">
-        <v>2296</v>
-      </c>
-      <c r="D660" t="s">
-        <v>2293</v>
-      </c>
-      <c r="E660" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A661" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B661" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C661" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D661" t="s">
         <v>2298</v>
       </c>
-      <c r="C661" t="s">
+      <c r="E661" t="s">
         <v>2299</v>
-      </c>
-      <c r="D661" t="s">
-        <v>2300</v>
-      </c>
-      <c r="E661" t="s">
-        <v>2301</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A662" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B662" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C662" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D662" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E662" t="s">
         <v>2302</v>
-      </c>
-      <c r="C662" t="s">
-        <v>2303</v>
-      </c>
-      <c r="D662" t="s">
-        <v>2293</v>
-      </c>
-      <c r="E662" t="s">
-        <v>2304</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A663" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B663" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C663" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D663" t="s">
         <v>2305</v>
       </c>
-      <c r="C663" t="s">
+      <c r="E663" t="s">
         <v>2306</v>
-      </c>
-      <c r="D663" t="s">
-        <v>2307</v>
-      </c>
-      <c r="E663" t="s">
-        <v>2308</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A664" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B664" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C664" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D664" t="s">
         <v>2309</v>
       </c>
-      <c r="C664" t="s">
+      <c r="E664" t="s">
         <v>2310</v>
-      </c>
-      <c r="D664" t="s">
-        <v>2311</v>
-      </c>
-      <c r="E664" t="s">
-        <v>2312</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A665" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B665" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C665" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D665" t="s">
         <v>2313</v>
       </c>
-      <c r="C665" t="s">
+      <c r="E665" t="s">
         <v>2314</v>
-      </c>
-      <c r="D665" t="s">
-        <v>2315</v>
-      </c>
-      <c r="E665" t="s">
-        <v>2316</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A666" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B666" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C666" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D666" t="s">
         <v>2317</v>
       </c>
-      <c r="C666" t="s">
+      <c r="E666" t="s">
         <v>2318</v>
-      </c>
-      <c r="D666" t="s">
-        <v>2319</v>
-      </c>
-      <c r="E666" t="s">
-        <v>2320</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A667" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B667" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="C667" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="D667" t="s">
         <v>354</v>
       </c>
       <c r="E667" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A668" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B668" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C668" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D668" t="s">
         <v>2324</v>
       </c>
-      <c r="C668" t="s">
+      <c r="E668" t="s">
         <v>2325</v>
-      </c>
-      <c r="D668" t="s">
-        <v>2326</v>
-      </c>
-      <c r="E668" t="s">
-        <v>2327</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A669" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B669" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C669" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D669" t="s">
         <v>2328</v>
       </c>
-      <c r="C669" t="s">
+      <c r="E669" t="s">
         <v>2329</v>
-      </c>
-      <c r="D669" t="s">
-        <v>2330</v>
-      </c>
-      <c r="E669" t="s">
-        <v>2331</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A670" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B670" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="C670" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="D670" t="s">
         <v>354</v>
       </c>
       <c r="E670" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A671" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B671" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C671" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D671" t="s">
         <v>2335</v>
       </c>
-      <c r="C671" t="s">
+      <c r="E671" t="s">
         <v>2336</v>
-      </c>
-      <c r="D671" t="s">
-        <v>2337</v>
-      </c>
-      <c r="E671" t="s">
-        <v>2338</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A672" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B672" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C672" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D672" t="s">
         <v>2339</v>
       </c>
-      <c r="C672" t="s">
+      <c r="E672" t="s">
         <v>2340</v>
-      </c>
-      <c r="D672" t="s">
-        <v>2341</v>
-      </c>
-      <c r="E672" t="s">
-        <v>2342</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A673" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B673" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C673" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D673" t="s">
         <v>2343</v>
       </c>
-      <c r="C673" t="s">
+      <c r="E673" t="s">
         <v>2344</v>
-      </c>
-      <c r="D673" t="s">
-        <v>2345</v>
-      </c>
-      <c r="E673" t="s">
-        <v>2346</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A674" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B674" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C674" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D674" t="s">
         <v>2347</v>
       </c>
-      <c r="C674" t="s">
+      <c r="E674" t="s">
         <v>2348</v>
-      </c>
-      <c r="D674" t="s">
-        <v>2349</v>
-      </c>
-      <c r="E674" t="s">
-        <v>2350</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A675" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B675" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C675" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D675" t="s">
         <v>2351</v>
       </c>
-      <c r="C675" t="s">
+      <c r="E675" t="s">
         <v>2352</v>
-      </c>
-      <c r="D675" t="s">
-        <v>2353</v>
-      </c>
-      <c r="E675" t="s">
-        <v>2354</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A676" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B676" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C676" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D676" t="s">
         <v>2355</v>
       </c>
-      <c r="C676" t="s">
+      <c r="E676" t="s">
         <v>2356</v>
-      </c>
-      <c r="D676" t="s">
-        <v>2357</v>
-      </c>
-      <c r="E676" t="s">
-        <v>2358</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A677" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B677" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="C677" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="D677" t="s">
         <v>133</v>
       </c>
       <c r="E677" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A678" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B678" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="C678" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="D678" t="s">
         <v>133</v>
       </c>
       <c r="E678" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A679" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B679" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="C679" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="D679" t="s">
         <v>133</v>
       </c>
       <c r="E679" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A680" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B680" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C680" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D680" t="s">
         <v>2367</v>
       </c>
-      <c r="C680" t="s">
+      <c r="E680" t="s">
         <v>2368</v>
-      </c>
-      <c r="D680" t="s">
-        <v>2369</v>
-      </c>
-      <c r="E680" t="s">
-        <v>2370</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A681" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B681" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="C681" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="D681" t="s">
         <v>118</v>
       </c>
       <c r="E681" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A682" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B682" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D682" t="s">
+        <v>2373</v>
+      </c>
+      <c r="E682" t="s">
         <v>2374</v>
-      </c>
-      <c r="D682" t="s">
-        <v>2375</v>
-      </c>
-      <c r="E682" t="s">
-        <v>2376</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A683" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B683" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="C683" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="D683" t="s">
         <v>110</v>
       </c>
       <c r="E683" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A684" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B684" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C684" t="s">
         <v>2380</v>
       </c>
-      <c r="B684" t="s">
+      <c r="D684" t="s">
         <v>2381</v>
       </c>
-      <c r="C684" t="s">
+      <c r="E684" t="s">
         <v>2382</v>
-      </c>
-      <c r="D684" t="s">
-        <v>2383</v>
-      </c>
-      <c r="E684" t="s">
-        <v>2384</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A685" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B685" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C685" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D685" t="s">
         <v>2385</v>
       </c>
-      <c r="C685" t="s">
+      <c r="E685" t="s">
         <v>2386</v>
-      </c>
-      <c r="D685" t="s">
-        <v>2387</v>
-      </c>
-      <c r="E685" t="s">
-        <v>2388</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A686" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B686" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C686" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D686" t="s">
         <v>2389</v>
       </c>
-      <c r="C686" t="s">
+      <c r="E686" t="s">
         <v>2390</v>
-      </c>
-      <c r="D686" t="s">
-        <v>2391</v>
-      </c>
-      <c r="E686" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A687" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B687" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C687" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D687" t="s">
         <v>2393</v>
       </c>
-      <c r="C687" t="s">
+      <c r="E687" t="s">
         <v>2394</v>
-      </c>
-      <c r="D687" t="s">
-        <v>2395</v>
-      </c>
-      <c r="E687" t="s">
-        <v>2396</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A688" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B688" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C688" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D688" t="s">
         <v>2397</v>
       </c>
-      <c r="C688" t="s">
+      <c r="E688" t="s">
         <v>2398</v>
-      </c>
-      <c r="D688" t="s">
-        <v>2399</v>
-      </c>
-      <c r="E688" t="s">
-        <v>2400</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A689" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B689" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C689" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D689" t="s">
         <v>2401</v>
       </c>
-      <c r="C689" t="s">
+      <c r="E689" t="s">
         <v>2402</v>
-      </c>
-      <c r="D689" t="s">
-        <v>2403</v>
-      </c>
-      <c r="E689" t="s">
-        <v>2404</v>
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A690" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B690" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C690" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D690" t="s">
         <v>2405</v>
       </c>
-      <c r="C690" t="s">
+      <c r="E690" t="s">
         <v>2406</v>
-      </c>
-      <c r="D690" t="s">
-        <v>2407</v>
-      </c>
-      <c r="E690" t="s">
-        <v>2408</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A691" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B691" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C691" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D691" t="s">
         <v>2409</v>
       </c>
-      <c r="C691" t="s">
+      <c r="E691" t="s">
         <v>2410</v>
-      </c>
-      <c r="D691" t="s">
-        <v>2411</v>
-      </c>
-      <c r="E691" t="s">
-        <v>2412</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A692" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B692" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C692" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D692" t="s">
         <v>2413</v>
       </c>
-      <c r="C692" t="s">
+      <c r="E692" t="s">
         <v>2414</v>
-      </c>
-      <c r="D692" t="s">
-        <v>2415</v>
-      </c>
-      <c r="E692" t="s">
-        <v>2416</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A693" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B693" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C693" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D693" t="s">
         <v>2417</v>
       </c>
-      <c r="C693" t="s">
+      <c r="E693" t="s">
         <v>2418</v>
-      </c>
-      <c r="D693" t="s">
-        <v>2419</v>
-      </c>
-      <c r="E693" t="s">
-        <v>2420</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A694" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B694" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C694" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D694" t="s">
         <v>2421</v>
       </c>
-      <c r="C694" t="s">
+      <c r="E694" t="s">
         <v>2422</v>
-      </c>
-      <c r="D694" t="s">
-        <v>2423</v>
-      </c>
-      <c r="E694" t="s">
-        <v>2424</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A695" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B695" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C695" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D695" t="s">
         <v>2425</v>
       </c>
-      <c r="C695" t="s">
+      <c r="E695" t="s">
         <v>2426</v>
-      </c>
-      <c r="D695" t="s">
-        <v>2427</v>
-      </c>
-      <c r="E695" t="s">
-        <v>2428</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A696" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B696" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C696" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D696" t="s">
         <v>2429</v>
       </c>
-      <c r="C696" t="s">
+      <c r="E696" t="s">
         <v>2430</v>
-      </c>
-      <c r="D696" t="s">
-        <v>2431</v>
-      </c>
-      <c r="E696" t="s">
-        <v>2432</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A697" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B697" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C697" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D697" t="s">
         <v>2433</v>
       </c>
-      <c r="C697" t="s">
+      <c r="E697" t="s">
         <v>2434</v>
-      </c>
-      <c r="D697" t="s">
-        <v>2435</v>
-      </c>
-      <c r="E697" t="s">
-        <v>2436</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A698" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B698" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C698" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D698" t="s">
         <v>2437</v>
       </c>
-      <c r="C698" t="s">
+      <c r="E698" t="s">
         <v>2438</v>
-      </c>
-      <c r="D698" t="s">
-        <v>2439</v>
-      </c>
-      <c r="E698" t="s">
-        <v>2440</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A699" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B699" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C699" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E699" t="s">
         <v>2441</v>
-      </c>
-      <c r="C699" t="s">
-        <v>2442</v>
-      </c>
-      <c r="E699" t="s">
-        <v>2443</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A700" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B700" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C700" t="s">
         <v>2444</v>
       </c>
-      <c r="B700" t="s">
+      <c r="E700" t="s">
         <v>2445</v>
-      </c>
-      <c r="C700" t="s">
-        <v>2446</v>
-      </c>
-      <c r="E700" t="s">
-        <v>2447</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A701" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="B701" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C701" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D701" t="s">
         <v>2448</v>
       </c>
-      <c r="C701" t="s">
+      <c r="E701" t="s">
         <v>2449</v>
-      </c>
-      <c r="D701" t="s">
-        <v>2450</v>
-      </c>
-      <c r="E701" t="s">
-        <v>2451</v>
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A702" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="B702" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="C702" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="D702" t="s">
         <v>400</v>
       </c>
       <c r="E702" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A703" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="B703" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="C703" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="D703" t="s">
         <v>1802</v>
       </c>
       <c r="E703" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A704" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="B704" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="C704" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="D704" t="s">
         <v>1220</v>
       </c>
       <c r="E704" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A705" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="B705" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C705" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D705" t="s">
         <v>2461</v>
       </c>
-      <c r="C705" t="s">
+      <c r="E705" t="s">
         <v>2462</v>
-      </c>
-      <c r="D705" t="s">
-        <v>2463</v>
-      </c>
-      <c r="E705" t="s">
-        <v>2464</v>
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A706" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B706" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C706" t="s">
         <v>2465</v>
       </c>
-      <c r="B706" t="s">
+      <c r="D706" t="s">
         <v>2466</v>
       </c>
-      <c r="C706" t="s">
+      <c r="E706" t="s">
         <v>2467</v>
-      </c>
-      <c r="D706" t="s">
-        <v>2468</v>
-      </c>
-      <c r="E706" t="s">
-        <v>2469</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A707" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B707" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C707" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D707" t="s">
         <v>2470</v>
       </c>
-      <c r="C707" t="s">
+      <c r="E707" t="s">
         <v>2471</v>
-      </c>
-      <c r="D707" t="s">
-        <v>2472</v>
-      </c>
-      <c r="E707" t="s">
-        <v>2473</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A708" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B708" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C708" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D708" t="s">
         <v>2474</v>
       </c>
-      <c r="C708" t="s">
+      <c r="E708" t="s">
         <v>2475</v>
-      </c>
-      <c r="D708" t="s">
-        <v>2476</v>
-      </c>
-      <c r="E708" t="s">
-        <v>2477</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A709" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B709" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D709" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E709" t="s">
         <v>2478</v>
-      </c>
-      <c r="D709" t="s">
-        <v>2479</v>
-      </c>
-      <c r="E709" t="s">
-        <v>2480</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A710" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B710" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D710" t="s">
+        <v>2480</v>
+      </c>
+      <c r="E710" t="s">
         <v>2481</v>
-      </c>
-      <c r="D710" t="s">
-        <v>2482</v>
-      </c>
-      <c r="E710" t="s">
-        <v>2483</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A711" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B711" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D711" t="s">
+        <v>2483</v>
+      </c>
+      <c r="E711" t="s">
         <v>2484</v>
-      </c>
-      <c r="D711" t="s">
-        <v>2485</v>
-      </c>
-      <c r="E711" t="s">
-        <v>2486</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A712" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B712" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C712" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D712" t="s">
         <v>2487</v>
       </c>
-      <c r="C712" t="s">
+      <c r="E712" t="s">
         <v>2488</v>
-      </c>
-      <c r="D712" t="s">
-        <v>2489</v>
-      </c>
-      <c r="E712" t="s">
-        <v>2490</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A713" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B713" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="C713" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="D713" t="s">
         <v>133</v>
       </c>
       <c r="E713" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A714" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B714" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="C714" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="D714" t="s">
         <v>133</v>
       </c>
       <c r="E714" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A715" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B715" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C715" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D715" t="s">
         <v>2497</v>
       </c>
-      <c r="C715" t="s">
+      <c r="E715" t="s">
         <v>2498</v>
-      </c>
-      <c r="D715" t="s">
-        <v>2499</v>
-      </c>
-      <c r="E715" t="s">
-        <v>2500</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A716" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B716" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="D716" t="s">
         <v>1427</v>
       </c>
       <c r="E716" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A717" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B717" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D717" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E717" t="s">
         <v>2503</v>
-      </c>
-      <c r="D717" t="s">
-        <v>2504</v>
-      </c>
-      <c r="E717" t="s">
-        <v>2505</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A718" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B718" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C718" t="s">
+        <v>2505</v>
+      </c>
+      <c r="D718" t="s">
         <v>2506</v>
       </c>
-      <c r="C718" t="s">
+      <c r="E718" t="s">
         <v>2507</v>
-      </c>
-      <c r="D718" t="s">
-        <v>2508</v>
-      </c>
-      <c r="E718" t="s">
-        <v>2509</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A719" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B719" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C719" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D719" t="s">
         <v>2510</v>
       </c>
-      <c r="C719" t="s">
+      <c r="E719" t="s">
         <v>2511</v>
-      </c>
-      <c r="D719" t="s">
-        <v>2512</v>
-      </c>
-      <c r="E719" t="s">
-        <v>2513</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A720" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B720" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="C720" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="D720" t="s">
         <v>110</v>
       </c>
       <c r="E720" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A721" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B721" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C721" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D721" t="s">
         <v>2517</v>
       </c>
-      <c r="C721" t="s">
+      <c r="E721" t="s">
         <v>2518</v>
-      </c>
-      <c r="D721" t="s">
-        <v>2519</v>
-      </c>
-      <c r="E721" t="s">
-        <v>2520</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A722" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B722" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D722" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E722" t="s">
         <v>2521</v>
-      </c>
-      <c r="D722" t="s">
-        <v>2522</v>
-      </c>
-      <c r="E722" t="s">
-        <v>2523</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A723" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B723" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D723" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E723" t="s">
         <v>2524</v>
-      </c>
-      <c r="D723" t="s">
-        <v>2525</v>
-      </c>
-      <c r="E723" t="s">
-        <v>2526</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A724" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B724" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C724" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D724" t="s">
         <v>2527</v>
       </c>
-      <c r="C724" t="s">
+      <c r="E724" t="s">
         <v>2528</v>
-      </c>
-      <c r="D724" t="s">
-        <v>2529</v>
-      </c>
-      <c r="E724" t="s">
-        <v>2530</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A725" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B725" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C725" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D725" t="s">
         <v>2531</v>
       </c>
-      <c r="C725" t="s">
+      <c r="E725" t="s">
         <v>2532</v>
-      </c>
-      <c r="D725" t="s">
-        <v>2533</v>
-      </c>
-      <c r="E725" t="s">
-        <v>2534</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A726" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B726" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D726" t="s">
+        <v>2534</v>
+      </c>
+      <c r="E726" t="s">
         <v>2535</v>
-      </c>
-      <c r="D726" t="s">
-        <v>2536</v>
-      </c>
-      <c r="E726" t="s">
-        <v>2537</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A727" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B727" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C727" t="s">
+        <v>2537</v>
+      </c>
+      <c r="D727" t="s">
         <v>2538</v>
       </c>
-      <c r="C727" t="s">
+      <c r="E727" t="s">
         <v>2539</v>
-      </c>
-      <c r="D727" t="s">
-        <v>2540</v>
-      </c>
-      <c r="E727" t="s">
-        <v>2541</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A728" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B728" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C728" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D728" t="s">
         <v>2542</v>
       </c>
-      <c r="C728" t="s">
+      <c r="E728" t="s">
         <v>2543</v>
-      </c>
-      <c r="D728" t="s">
-        <v>2544</v>
-      </c>
-      <c r="E728" t="s">
-        <v>2545</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A729" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B729" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C729" t="s">
+        <v>2545</v>
+      </c>
+      <c r="D729" t="s">
         <v>2546</v>
       </c>
-      <c r="C729" t="s">
+      <c r="E729" t="s">
         <v>2547</v>
-      </c>
-      <c r="D729" t="s">
-        <v>2548</v>
-      </c>
-      <c r="E729" t="s">
-        <v>2549</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A730" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B730" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C730" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D730" t="s">
         <v>2550</v>
       </c>
-      <c r="C730" t="s">
+      <c r="E730" t="s">
         <v>2551</v>
-      </c>
-      <c r="D730" t="s">
-        <v>2552</v>
-      </c>
-      <c r="E730" t="s">
-        <v>2553</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A731" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B731" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C731" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D731" t="s">
         <v>2554</v>
       </c>
-      <c r="C731" t="s">
+      <c r="E731" t="s">
         <v>2555</v>
-      </c>
-      <c r="D731" t="s">
-        <v>2556</v>
-      </c>
-      <c r="E731" t="s">
-        <v>2557</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A732" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B732" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C732" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D732" t="s">
         <v>2558</v>
       </c>
-      <c r="C732" t="s">
+      <c r="E732" t="s">
         <v>2559</v>
-      </c>
-      <c r="D732" t="s">
-        <v>2560</v>
-      </c>
-      <c r="E732" t="s">
-        <v>2561</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A733" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B733" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C733" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D733" t="s">
         <v>2562</v>
       </c>
-      <c r="C733" t="s">
+      <c r="E733" t="s">
         <v>2563</v>
-      </c>
-      <c r="D733" t="s">
-        <v>2564</v>
-      </c>
-      <c r="E733" t="s">
-        <v>2565</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A734" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B734" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C734" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D734" t="s">
         <v>2566</v>
       </c>
-      <c r="C734" t="s">
+      <c r="E734" t="s">
         <v>2567</v>
-      </c>
-      <c r="D734" t="s">
-        <v>2568</v>
-      </c>
-      <c r="E734" t="s">
-        <v>2569</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A735" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B735" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C735" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D735" t="s">
         <v>2570</v>
       </c>
-      <c r="C735" t="s">
+      <c r="E735" t="s">
         <v>2571</v>
-      </c>
-      <c r="D735" t="s">
-        <v>2572</v>
-      </c>
-      <c r="E735" t="s">
-        <v>2573</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A736" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B736" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C736" t="s">
         <v>2574</v>
-      </c>
-      <c r="B736" t="s">
-        <v>2575</v>
-      </c>
-      <c r="C736" t="s">
-        <v>2576</v>
       </c>
       <c r="D736" t="s">
         <v>133</v>
       </c>
       <c r="E736" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A737" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B737" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="C737" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="D737" t="s">
         <v>110</v>
       </c>
       <c r="E737" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A738" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B738" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="C738" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="D738" t="s">
         <v>110</v>
       </c>
       <c r="E738" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A739" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B739" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C739" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D739" t="s">
         <v>2584</v>
       </c>
-      <c r="C739" t="s">
+      <c r="E739" t="s">
         <v>2585</v>
-      </c>
-      <c r="D739" t="s">
-        <v>2586</v>
-      </c>
-      <c r="E739" t="s">
-        <v>2587</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A740" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B740" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C740" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D740" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E740" t="s">
         <v>2588</v>
-      </c>
-      <c r="C740" t="s">
-        <v>2589</v>
-      </c>
-      <c r="D740" t="s">
-        <v>2586</v>
-      </c>
-      <c r="E740" t="s">
-        <v>2590</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A741" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B741" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="C741" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="D741" t="s">
         <v>141</v>
       </c>
       <c r="E741" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A742" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B742" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="C742" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="D742" t="s">
         <v>133</v>
       </c>
       <c r="E742" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A743" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B743" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="C743" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="D743" t="s">
         <v>133</v>
       </c>
       <c r="E743" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A744" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B744" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="C744" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="D744" t="s">
         <v>133</v>
       </c>
       <c r="E744" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A745" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B745" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C745" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D745" t="s">
         <v>2603</v>
       </c>
-      <c r="C745" t="s">
+      <c r="E745" t="s">
         <v>2604</v>
-      </c>
-      <c r="D745" t="s">
-        <v>2605</v>
-      </c>
-      <c r="E745" t="s">
-        <v>2606</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A746" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B746" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C746" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D746" t="s">
         <v>2607</v>
       </c>
-      <c r="C746" t="s">
+      <c r="E746" t="s">
         <v>2608</v>
-      </c>
-      <c r="D746" t="s">
-        <v>2609</v>
-      </c>
-      <c r="E746" t="s">
-        <v>2610</v>
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A747" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B747" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C747" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D747" t="s">
         <v>2611</v>
       </c>
-      <c r="C747" t="s">
+      <c r="E747" t="s">
         <v>2612</v>
-      </c>
-      <c r="D747" t="s">
-        <v>2613</v>
-      </c>
-      <c r="E747" t="s">
-        <v>2614</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A748" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B748" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="C748" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="D748" t="s">
         <v>110</v>
       </c>
       <c r="E748" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A749" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B749" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="C749" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="D749" t="s">
         <v>133</v>
       </c>
       <c r="E749" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A750" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B750" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C750" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D750" t="s">
         <v>2621</v>
       </c>
-      <c r="C750" t="s">
+      <c r="E750" t="s">
         <v>2622</v>
-      </c>
-      <c r="D750" t="s">
-        <v>2623</v>
-      </c>
-      <c r="E750" t="s">
-        <v>2624</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A751" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B751" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C751" t="s">
         <v>2625</v>
       </c>
-      <c r="B751" t="s">
+      <c r="D751" t="s">
         <v>2626</v>
       </c>
-      <c r="C751" t="s">
+      <c r="E751" t="s">
         <v>2627</v>
-      </c>
-      <c r="D751" t="s">
-        <v>2628</v>
-      </c>
-      <c r="E751" t="s">
-        <v>2629</v>
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A752" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B752" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="C752" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="D752" t="s">
         <v>133</v>
       </c>
       <c r="E752" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A753" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B753" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="C753" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="D753" t="s">
         <v>1828</v>
       </c>
       <c r="E753" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A754" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B754" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C754" t="s">
+        <v>2635</v>
+      </c>
+      <c r="E754" t="s">
         <v>2636</v>
-      </c>
-      <c r="C754" t="s">
-        <v>2637</v>
-      </c>
-      <c r="E754" t="s">
-        <v>2638</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A755" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B755" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="C755" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="D755" t="s">
         <v>133</v>
       </c>
       <c r="E755" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A756" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B756" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C756" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D756" t="s">
         <v>2642</v>
       </c>
-      <c r="C756" t="s">
+      <c r="E756" t="s">
         <v>2643</v>
-      </c>
-      <c r="D756" t="s">
-        <v>2644</v>
-      </c>
-      <c r="E756" t="s">
-        <v>2645</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A757" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B757" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C757" t="s">
+        <v>2645</v>
+      </c>
+      <c r="E757" t="s">
         <v>2646</v>
-      </c>
-      <c r="C757" t="s">
-        <v>2647</v>
-      </c>
-      <c r="E757" t="s">
-        <v>2648</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A758" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B758" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="E758" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A759" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B759" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="C759" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="D759" t="s">
         <v>1140</v>
       </c>
       <c r="E759" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A760" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B760" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="C760" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="D760" t="s">
         <v>118</v>
       </c>
       <c r="E760" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A761" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B761" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C761" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D761" t="s">
         <v>2657</v>
       </c>
-      <c r="C761" t="s">
+      <c r="E761" t="s">
         <v>2658</v>
-      </c>
-      <c r="D761" t="s">
-        <v>2659</v>
-      </c>
-      <c r="E761" t="s">
-        <v>2660</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A762" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B762" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C762" t="s">
+        <v>2660</v>
+      </c>
+      <c r="E762" t="s">
         <v>2661</v>
-      </c>
-      <c r="C762" t="s">
-        <v>2662</v>
-      </c>
-      <c r="E762" t="s">
-        <v>2663</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A763" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B763" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D763" t="s">
+        <v>2663</v>
+      </c>
+      <c r="E763" t="s">
         <v>2664</v>
-      </c>
-      <c r="D763" t="s">
-        <v>2665</v>
-      </c>
-      <c r="E763" t="s">
-        <v>2666</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A764" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B764" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="D764" t="s">
         <v>110</v>
       </c>
       <c r="E764" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A765" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B765" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="E765" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A766" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B766" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C766" t="s">
+        <v>2670</v>
+      </c>
+      <c r="E766" t="s">
         <v>2671</v>
-      </c>
-      <c r="C766" t="s">
-        <v>2672</v>
-      </c>
-      <c r="E766" t="s">
-        <v>2673</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A767" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B767" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C767" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D767" t="s">
         <v>2674</v>
       </c>
-      <c r="C767" t="s">
+      <c r="E767" t="s">
         <v>2675</v>
-      </c>
-      <c r="D767" t="s">
-        <v>2676</v>
-      </c>
-      <c r="E767" t="s">
-        <v>2677</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A768" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B768" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C768" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D768" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E768" t="s">
         <v>2678</v>
-      </c>
-      <c r="C768" t="s">
-        <v>2679</v>
-      </c>
-      <c r="D768" t="s">
-        <v>2676</v>
-      </c>
-      <c r="E768" t="s">
-        <v>2680</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A769" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B769" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C769" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D769" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E769" t="s">
         <v>2681</v>
-      </c>
-      <c r="C769" t="s">
-        <v>2682</v>
-      </c>
-      <c r="D769" t="s">
-        <v>2676</v>
-      </c>
-      <c r="E769" t="s">
-        <v>2683</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A770" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B770" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C770" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D770" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E770" t="s">
         <v>2684</v>
-      </c>
-      <c r="C770" t="s">
-        <v>2685</v>
-      </c>
-      <c r="D770" t="s">
-        <v>2132</v>
-      </c>
-      <c r="E770" t="s">
-        <v>2686</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A771" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B771" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C771" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D771" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E771" t="s">
         <v>2687</v>
-      </c>
-      <c r="C771" t="s">
-        <v>2688</v>
-      </c>
-      <c r="D771" t="s">
-        <v>2132</v>
-      </c>
-      <c r="E771" t="s">
-        <v>2689</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx_all/chineseMedicalData.xlsx
+++ b/data/xlsx_all/chineseMedicalData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3702" uniqueCount="2700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3708" uniqueCount="2706">
   <si>
     <t>part</t>
   </si>
@@ -3483,10 +3483,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>甘。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有解毒和血之效。</t>
   </si>
   <si>
@@ -3536,10 +3532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>治水（一种心疾）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3555,10 +3547,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>治赤痢、眼疾。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3571,10 +3559,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杀虫。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8149,6 +8133,46 @@
   </si>
   <si>
     <t>1、耳出脓水。用黄矾二两烧枯，取二钱，棉裹成球，塞耳内。2、身上瘢痕。用黄矾（烧令汁尽）、胡粉（炒黄）各八分，研细，加猪油，共捣成泥。先以粗布擦瘢，感到疼痛时，把药涂上，涂药五次以后，再用老鹰粪、燕窠草烧祳灰等分，加人乳调匀涂瘢。皮肤能恢复正常。3、急疳蚀齿。用黄矾、绿矾各半钱，白矾（烧过）一钱，麝香一分，共研为末敷患处，吐出流涎，病渐愈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘，平，无毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（藤中水）甘，平，无毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦，温，无毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛，温，无毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛，温，小毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘，微温，有小毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘，性平，无毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦，平，小毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸，有毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又名百棱藤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8500,8 +8524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E771"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A548" workbookViewId="0">
-      <selection activeCell="E565" sqref="E565"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="F337" sqref="F337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8554,7 +8578,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>2696</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -8803,7 +8827,7 @@
         <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>2690</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -8882,7 +8906,7 @@
         <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>2691</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -9128,7 +9152,7 @@
         <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>2695</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -9603,7 +9627,7 @@
         <v>241</v>
       </c>
       <c r="E67" t="s">
-        <v>2692</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
@@ -10229,7 +10253,7 @@
         <v>369</v>
       </c>
       <c r="E104" t="s">
-        <v>2688</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
@@ -11454,7 +11478,7 @@
         <v>633</v>
       </c>
       <c r="E178" t="s">
-        <v>2697</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
@@ -12860,7 +12884,7 @@
         <v>938</v>
       </c>
       <c r="E263" t="s">
-        <v>2689</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.15">
@@ -13517,7 +13541,7 @@
         <v>254</v>
       </c>
       <c r="E302" t="s">
-        <v>2694</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.15">
@@ -13941,10 +13965,10 @@
         <v>1154</v>
       </c>
       <c r="D328" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E328" t="s">
         <v>1155</v>
-      </c>
-      <c r="E328" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.15">
@@ -13952,10 +13976,13 @@
         <v>219</v>
       </c>
       <c r="B329" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D329" t="s">
+        <v>2697</v>
+      </c>
+      <c r="E329" t="s">
         <v>1157</v>
-      </c>
-      <c r="E329" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.15">
@@ -13963,10 +13990,13 @@
         <v>219</v>
       </c>
       <c r="B330" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D330" t="s">
+        <v>2698</v>
+      </c>
+      <c r="E330" t="s">
         <v>1159</v>
-      </c>
-      <c r="E330" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.15">
@@ -13974,10 +14004,10 @@
         <v>219</v>
       </c>
       <c r="B331" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E331" t="s">
         <v>1161</v>
-      </c>
-      <c r="E331" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.15">
@@ -13985,10 +14015,13 @@
         <v>219</v>
       </c>
       <c r="B332" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D332" t="s">
+        <v>2699</v>
+      </c>
+      <c r="E332" t="s">
         <v>1163</v>
-      </c>
-      <c r="E332" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.15">
@@ -13996,10 +14029,13 @@
         <v>219</v>
       </c>
       <c r="B333" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D333" t="s">
+        <v>2700</v>
+      </c>
+      <c r="E333" t="s">
         <v>1165</v>
-      </c>
-      <c r="E333" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.15">
@@ -14007,10 +14043,13 @@
         <v>219</v>
       </c>
       <c r="B334" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C334" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E334" t="s">
         <v>1167</v>
-      </c>
-      <c r="E334" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.15">
@@ -14018,13 +14057,13 @@
         <v>219</v>
       </c>
       <c r="B335" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D335" t="s">
+        <v>2701</v>
+      </c>
+      <c r="E335" t="s">
         <v>1169</v>
-      </c>
-      <c r="D335" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E335" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.15">
@@ -14032,10 +14071,13 @@
         <v>219</v>
       </c>
       <c r="B336" t="s">
-        <v>1172</v>
+        <v>1170</v>
+      </c>
+      <c r="D336" t="s">
+        <v>2702</v>
       </c>
       <c r="E336" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.15">
@@ -14043,13 +14085,13 @@
         <v>219</v>
       </c>
       <c r="B337" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D337" t="s">
-        <v>1175</v>
+        <v>2703</v>
       </c>
       <c r="E337" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.15">
@@ -14057,16 +14099,16 @@
         <v>219</v>
       </c>
       <c r="B338" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C338" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="D338" t="s">
-        <v>1179</v>
+        <v>2704</v>
       </c>
       <c r="E338" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.15">
@@ -14074,4476 +14116,4476 @@
         <v>219</v>
       </c>
       <c r="B339" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="D339" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="E339" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B340" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="C340" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="D340" t="s">
         <v>133</v>
       </c>
       <c r="E340" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B341" t="s">
         <v>1184</v>
-      </c>
-      <c r="B341" t="s">
-        <v>1188</v>
       </c>
       <c r="D341" t="s">
         <v>258</v>
       </c>
       <c r="E341" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B342" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="C342" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="D342" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="E342" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B343" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="C343" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="E343" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B344" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="C344" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="D344" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="E344" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B345" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="C345" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="D345" t="s">
         <v>114</v>
       </c>
       <c r="E345" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B346" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="D346" t="s">
         <v>68</v>
       </c>
       <c r="E346" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B347" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="C347" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="D347" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E347" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B348" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="C348" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="D348" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="E348" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B349" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C349" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="D349" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="E349" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B350" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="C350" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="D350" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="E350" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B351" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C351" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D351" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="E351" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B352" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="C352" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="D352" t="s">
         <v>852</v>
       </c>
       <c r="E352" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B353" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C353" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="D353" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="E353" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B354" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="D354" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="E354" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B355" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="C355" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="D355" t="s">
         <v>852</v>
       </c>
       <c r="E355" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B356" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="C356" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="D356" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="E356" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B357" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C357" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="D357" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="E357" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B358" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C358" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="D358" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="E358" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B359" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="C359" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="D359" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="E359" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B360" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C360" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="D360" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="E360" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B361" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C361" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="D361" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="E361" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B362" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C362" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="D362" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="E362" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B363" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C363" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="D363" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="E363" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B364" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C364" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="D364" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="E364" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B365" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C365" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="D365" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="E365" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B366" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C366" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="D366" t="s">
         <v>760</v>
       </c>
       <c r="E366" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B367" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="C367" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="D367" t="s">
         <v>44</v>
       </c>
       <c r="E367" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B368" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="C368" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="D368" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="E368" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B369" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="C369" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="D369" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="E369" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B370" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="C370" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="D370" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="E370" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B371" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C371" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D371" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="E371" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B372" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C372" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="D372" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="E372" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B373" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C373" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="D373" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="E373" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B374" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C374" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="D374" t="s">
         <v>852</v>
       </c>
       <c r="E374" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B375" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C375" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D375" t="s">
         <v>110</v>
       </c>
       <c r="E375" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B376" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="C376" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="E376" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B377" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C377" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="D377" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="E377" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B378" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C378" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="D378" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="E378" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B379" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="C379" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="D379" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="E379" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B380" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="C380" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="D380" t="s">
         <v>760</v>
       </c>
       <c r="E380" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B381" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="C381" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="D381" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="E381" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B382" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="C382" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="D382" t="s">
         <v>133</v>
       </c>
       <c r="E382" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B383" t="s">
         <v>1333</v>
       </c>
-      <c r="B383" t="s">
-        <v>1337</v>
-      </c>
       <c r="C383" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="D383" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="E383" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B384" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="C384" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="D384" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="E384" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B385" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="C385" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="D385" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="E385" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B386" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="C386" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="D386" t="s">
         <v>133</v>
       </c>
       <c r="E386" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B387" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C387" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="D387" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="E387" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B388" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="C388" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="D388" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="E388" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B389" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="D389" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="E389" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B390" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="C390" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="D390" t="s">
         <v>68</v>
       </c>
       <c r="E390" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B391" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="C391" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="D391" t="s">
         <v>110</v>
       </c>
       <c r="E391" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B392" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="C392" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="D392" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="E392" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B393" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C393" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="D393" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="E393" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B394" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C394" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="D394" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="E394" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B395" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="D395" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="E395" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B396" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="D396" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="E396" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B397" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C397" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="D397" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="E397" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B398" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="D398" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="E398" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B399" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C399" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="D399" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="E399" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B400" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C400" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="D400" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="E400" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B401" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C401" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="D401" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="E401" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B402" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="C402" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="D402" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="E402" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B403" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="D403" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="E403" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B404" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C404" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="E404" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B405" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="D405" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="E405" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B406" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C406" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="D406" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="E406" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B407" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="C407" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="D407" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E407" t="s">
         <v>1421</v>
-      </c>
-      <c r="E407" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B408" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="D408" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="E408" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B409" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="C409" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="D409" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="E409" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B410" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="D410" t="s">
         <v>133</v>
       </c>
       <c r="E410" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B411" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="D411" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="E411" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B412" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="D412" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="E412" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B413" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="D413" t="s">
         <v>133</v>
       </c>
       <c r="E413" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B414" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="C414" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="D414" t="s">
         <v>68</v>
       </c>
       <c r="E414" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B415" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="D415" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="E415" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B416" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="D416" t="s">
         <v>68</v>
       </c>
       <c r="E416" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B417" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="D417" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="E417" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B418" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="C418" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="D418" t="s">
         <v>1137</v>
       </c>
       <c r="E418" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B419" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="D419" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="E419" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B420" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="C420" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="D420" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="E420" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B421" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="D421" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="E421" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B422" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="C422" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="D422" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="E422" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B423" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="C423" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="D423" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="E423" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B424" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="D424" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="E424" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B425" t="s">
         <v>1475</v>
       </c>
-      <c r="B425" t="s">
-        <v>1479</v>
-      </c>
       <c r="C425" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="D425" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="E425" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B426" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="C426" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="D426" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="E426" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B427" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="D427" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="E427" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B428" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="D428" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="E428" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B429" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="C429" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="D429" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="E429" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B430" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="D430" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="E430" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B431" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="C431" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="D431" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="E431" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B432" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="C432" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="D432" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="E432" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B433" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="C433" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="D433" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="E433" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B434" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="C434" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="D434" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="E434" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B435" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="D435" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="E435" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B436" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="C436" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="D436" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="E436" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B437" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="C437" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="D437" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="E437" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B438" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="D438" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="E438" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B439" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="D439" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="E439" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B440" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="D440" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="E440" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B441" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="C441" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="D441" t="s">
         <v>640</v>
       </c>
       <c r="E441" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B442" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="C442" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="D442" t="s">
         <v>85</v>
       </c>
       <c r="E442" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B443" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="C443" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="D443" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="E443" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B444" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="C444" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="D444" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="E444" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B445" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D445" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="E445" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B446" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="C446" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="D446" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="E446" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B447" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="C447" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="D447" t="s">
         <v>85</v>
       </c>
       <c r="E447" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B448" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="C448" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="D448" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="E448" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B449" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="C449" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="D449" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="E449" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B450" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="D450" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="E450" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B451" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C451" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="D451" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="E451" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B452" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="C452" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="D452" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="E452" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B453" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="C453" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="D453" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="E453" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B454" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="C454" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="D454" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="E454" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B455" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="D455" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="E455" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B456" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="C456" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="D456" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="E456" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B457" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="C457" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="D457" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="E457" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B458" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="C458" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="D458" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="E458" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B459" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="C459" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="D459" t="s">
         <v>613</v>
       </c>
       <c r="E459" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B460" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="C460" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="D460" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="E460" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B461" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="C461" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="D461" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="E461" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B462" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="C462" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="D462" t="s">
         <v>613</v>
       </c>
       <c r="E462" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B463" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="C463" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="D463" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="E463" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B464" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="C464" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="D464" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="E464" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B465" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="C465" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="D465" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="E465" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B466" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="C466" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="D466" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="E466" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B467" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="C467" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="D467" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="E467" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B468" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="C468" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="D468" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="E468" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B469" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="D469" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="E469" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B470" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="C470" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="D470" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="E470" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B471" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="C471" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="D471" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="E471" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B472" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="C472" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="D472" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="E472" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B473" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="C473" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="D473" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="E473" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B474" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="C474" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D474" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="E474" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B475" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D475" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="E475" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B476" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="C476" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="D476" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="E476" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B477" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="C477" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="D477" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="E477" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B478" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="D478" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="E478" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B479" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="C479" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="D479" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="E479" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B480" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="C480" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="D480" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="E480" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B481" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="C481" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="D481" t="s">
         <v>133</v>
       </c>
       <c r="E481" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B482" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="C482" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="D482" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="E482" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B483" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="C483" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="D483" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="E483" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B484" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="C484" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="D484" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="E484" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="B485" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="C485" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="E485" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B486" t="s">
         <v>1696</v>
       </c>
-      <c r="B486" t="s">
-        <v>1700</v>
-      </c>
       <c r="E486" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="B487" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="C487" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="E487" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="B488" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="C488" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="E488" t="s">
-        <v>2693</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="B489" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="C489" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="E489" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E490" t="s">
         <v>1710</v>
-      </c>
-      <c r="B490" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C490" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D490" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E490" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B491" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="D491" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="E491" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B492" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="C492" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="D492" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="E492" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B493" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="C493" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="D493" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="E493" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B494" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="C494" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="D494" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E494" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B495" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="D495" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="E495" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B496" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="C496" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="D496" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="E496" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B497" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="C497" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="D497" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="E497" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B498" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="D498" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="E498" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B499" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="D499" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="E499" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B500" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="C500" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="D500" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="E500" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B501" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="C501" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="D501" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="E501" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B502" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="C502" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="D502" t="s">
         <v>68</v>
       </c>
       <c r="E502" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B503" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="D503" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="E503" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B504" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="C504" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="D504" t="s">
         <v>110</v>
       </c>
       <c r="E504" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E505" t="s">
         <v>1762</v>
-      </c>
-      <c r="B505" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C505" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D505" t="s">
-        <v>1765</v>
-      </c>
-      <c r="E505" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B506" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="C506" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="D506" t="s">
         <v>114</v>
       </c>
       <c r="E506" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B507" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="C507" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="D507" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="E507" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B508" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="C508" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="D508" t="s">
         <v>110</v>
       </c>
       <c r="E508" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B509" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="C509" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="D509" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="E509" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B510" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="C510" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="D510" t="s">
         <v>1083</v>
       </c>
       <c r="E510" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B511" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="C511" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="D511" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="E511" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B512" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="C512" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="D512" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="E512" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B513" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="C513" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="D513" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="E513" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B514" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="C514" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="D514" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="E514" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B515" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="C515" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="D515" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="E515" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B516" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="C516" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="D516" t="s">
         <v>114</v>
       </c>
       <c r="E516" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B517" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="C517" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="D517" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="E517" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B518" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="C518" t="s">
         <v>258</v>
       </c>
       <c r="E518" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B519" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="C519" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="D519" t="s">
         <v>852</v>
       </c>
       <c r="E519" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B520" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="C520" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="D520" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="E520" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A521" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B521" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="C521" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="D521" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="E521" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A522" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B522" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="C522" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="D522" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="E522" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B523" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="C523" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="D523" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="E523" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B524" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="C524" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="D524" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="E524" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B525" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="D525" t="s">
         <v>848</v>
       </c>
       <c r="E525" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B526" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="C526" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="E526" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B527" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="C527" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="D527" t="s">
         <v>110</v>
       </c>
       <c r="E527" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A528" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B528" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="C528" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="D528" t="s">
         <v>640</v>
       </c>
       <c r="E528" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B529" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="C529" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="D529" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="E529" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A530" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B530" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="C530" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="D530" t="s">
         <v>68</v>
       </c>
       <c r="E530" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A531" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B531" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="C531" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="D531" t="s">
         <v>133</v>
       </c>
       <c r="E531" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A532" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B532" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="C532" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="D532" t="s">
         <v>68</v>
       </c>
       <c r="E532" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A533" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B533" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="C533" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="D533" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="E533" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A534" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B534" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="C534" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="D534" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="E534" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A535" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B535" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="C535" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="D535" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="E535" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A536" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B536" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="C536" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="D536" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="E536" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A537" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B537" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="C537" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="D537" t="s">
         <v>1083</v>
       </c>
       <c r="E537" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B538" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="C538" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="D538" t="s">
         <v>354</v>
       </c>
       <c r="E538" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A539" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B539" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="C539" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="D539" t="s">
         <v>110</v>
       </c>
       <c r="E539" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B540" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="C540" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="D540" t="s">
         <v>1140</v>
       </c>
       <c r="E540" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B541" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="C541" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="D541" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="E541" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B542" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="C542" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="D542" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="E542" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A543" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B543" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="C543" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="D543" t="s">
         <v>133</v>
       </c>
       <c r="E543" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A544" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B544" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="C544" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="D544" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="E544" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A545" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B545" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="C545" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="D545" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="E545" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A546" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B546" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="C546" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D546" t="s">
         <v>110</v>
       </c>
       <c r="E546" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A547" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B547" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="C547" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="D547" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="E547" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B548" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="C548" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="D548" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="E548" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A549" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B549" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="C549" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="D549" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="E549" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A550" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B550" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="C550" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="D550" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="E550" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B551" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="C551" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="D551" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="E551" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B552" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="C552" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="D552" t="s">
         <v>760</v>
       </c>
       <c r="E552" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A553" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B553" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="C553" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="D553" t="s">
         <v>354</v>
       </c>
       <c r="E553" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B554" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="C554" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="D554" t="s">
         <v>1083</v>
       </c>
       <c r="E554" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A555" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B555" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="C555" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="D555" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="E555" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A556" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B556" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="C556" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="D556" t="s">
         <v>354</v>
       </c>
       <c r="E556" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A557" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B557" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
       <c r="C557" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="D557" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="E557" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B558" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
       <c r="C558" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="D558" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="E558" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A559" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B559" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="C559" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="D559" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="E559" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B560" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
       <c r="C560" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="D560" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
       <c r="E560" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A561" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B561" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="C561" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="D561" t="s">
         <v>749</v>
       </c>
       <c r="E561" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A562" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B562" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="C562" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
       <c r="D562" t="s">
         <v>271</v>
       </c>
       <c r="E562" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B563" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="C563" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="D563" t="s">
         <v>85</v>
       </c>
       <c r="E563" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A564" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B564" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="C564" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
       <c r="D564" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="E564" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A565" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B565" t="s">
-        <v>2698</v>
+        <v>2694</v>
       </c>
       <c r="D565" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="E565" t="s">
-        <v>2699</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A566" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E566" t="s">
         <v>1967</v>
-      </c>
-      <c r="B566" t="s">
-        <v>1968</v>
-      </c>
-      <c r="C566" t="s">
-        <v>1969</v>
-      </c>
-      <c r="D566" t="s">
-        <v>1970</v>
-      </c>
-      <c r="E566" t="s">
-        <v>1971</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A567" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B567" t="s">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="C567" t="s">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="D567" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="E567" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A568" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B568" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="C568" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="D568" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="E568" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A569" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B569" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="C569" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="D569" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="E569" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A570" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B570" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="C570" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="D570" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="E570" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A571" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B571" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="C571" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="D571" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="E571" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A572" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B572" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="C572" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D572" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="E572" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A573" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B573" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="C573" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D573" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="E573" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B574" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="C574" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D574" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="E574" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B575" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="C575" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D575" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="E575" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B576" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="C576" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D576" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E576" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A577" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B577" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C577" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D577" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="E577" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A578" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B578" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C578" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D578" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E578" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A579" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B579" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D579" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E579" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B580" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C580" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D580" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="E580" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A581" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B581" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="C581" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D581" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="E581" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A582" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B582" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="D582" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="E582" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A583" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B583" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="C583" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="D583" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="E583" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A584" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B584" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="C584" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="D584" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="E584" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A585" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B585" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="C585" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="D585" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="E585" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A586" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B586" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="C586" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="D586" t="s">
         <v>133</v>
       </c>
       <c r="E586" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A587" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B587" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="C587" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="D587" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="E587" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A588" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B588" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="C588" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
       <c r="D588" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="E588" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A589" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B589" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="D589" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
       <c r="E589" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A590" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B590" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
       <c r="C590" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="D590" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="E590" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A591" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B591" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="C591" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="D591" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E591" t="s">
         <v>2059</v>
-      </c>
-      <c r="E591" t="s">
-        <v>2063</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A592" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B592" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="E592" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A593" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B593" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="D593" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="E593" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A594" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B594" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="D594" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="E594" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A595" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B595" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C595" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D595" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E595" t="s">
         <v>2071</v>
-      </c>
-      <c r="B595" t="s">
-        <v>2072</v>
-      </c>
-      <c r="C595" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D595" t="s">
-        <v>2074</v>
-      </c>
-      <c r="E595" t="s">
-        <v>2075</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A596" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B596" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="C596" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="D596" t="s">
         <v>48</v>
       </c>
       <c r="E596" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B597" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
       <c r="C597" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
       <c r="D597" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="E597" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B598" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="C598" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
       <c r="D598" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="E598" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B599" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="C599" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="D599" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="E599" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A600" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B600" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="C600" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="D600" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="E600" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A601" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B601" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
       <c r="C601" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="D601" t="s">
         <v>48</v>
       </c>
       <c r="E601" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A602" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B602" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="C602" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="D602" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="E602" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A603" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B603" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
       <c r="D603" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="E603" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A604" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B604" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="D604" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="E604" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A605" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B605" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="C605" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="D605" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="E605" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A606" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B606" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="C606" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="D606" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="E606" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A607" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B607" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="C607" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="D607" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="E607" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A608" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B608" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="C608" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
       <c r="D608" t="s">
         <v>118</v>
       </c>
       <c r="E608" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A609" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B609" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
       <c r="C609" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
       <c r="D609" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="E609" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A610" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B610" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="D610" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="E610" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A611" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B611" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
       <c r="C611" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="D611" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
       <c r="E611" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A612" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B612" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
       <c r="C612" t="s">
-        <v>2133</v>
+        <v>2129</v>
       </c>
       <c r="D612" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
       <c r="E612" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A613" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B613" t="s">
         <v>405</v>
@@ -18560,2598 +18602,2598 @@
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A614" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B614" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
       <c r="C614" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="D614" t="s">
         <v>354</v>
       </c>
       <c r="E614" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A615" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B615" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="C615" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
       <c r="D615" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="E615" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A616" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B616" t="s">
-        <v>2142</v>
+        <v>2138</v>
       </c>
       <c r="C616" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="D616" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="E616" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A617" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B617" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="C617" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
       <c r="D617" t="s">
         <v>114</v>
       </c>
       <c r="E617" t="s">
-        <v>2147</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A618" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B618" t="s">
-        <v>2148</v>
+        <v>2144</v>
       </c>
       <c r="C618" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="D618" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
       <c r="E618" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A619" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B619" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="C619" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="D619" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="E619" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A620" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B620" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="C620" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="D620" t="s">
         <v>118</v>
       </c>
       <c r="E620" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A621" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B621" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="C621" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="D621" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="E621" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A622" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B622" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="C622" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
       <c r="D622" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
       <c r="E622" t="s">
-        <v>2166</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A623" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B623" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
       <c r="C623" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
       <c r="D623" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
       <c r="E623" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A624" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B624" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
       <c r="C624" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
       <c r="D624" t="s">
         <v>271</v>
       </c>
       <c r="E624" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B625" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="C625" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="D625" t="s">
-        <v>2176</v>
+        <v>2172</v>
       </c>
       <c r="E625" t="s">
-        <v>2177</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B626" t="s">
-        <v>2178</v>
+        <v>2174</v>
       </c>
       <c r="D626" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
       <c r="E626" t="s">
-        <v>2180</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A627" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B627" t="s">
-        <v>2181</v>
+        <v>2177</v>
       </c>
       <c r="C627" t="s">
-        <v>2182</v>
+        <v>2178</v>
       </c>
       <c r="D627" t="s">
-        <v>2183</v>
+        <v>2179</v>
       </c>
       <c r="E627" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A628" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B628" t="s">
-        <v>2185</v>
+        <v>2181</v>
       </c>
       <c r="C628" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
       <c r="D628" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="E628" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A629" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B629" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
       <c r="C629" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
       <c r="D629" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
       <c r="E629" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A630" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B630" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
       <c r="D630" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
       <c r="E630" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A631" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B631" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
       <c r="C631" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="D631" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E631" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A632" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B632" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
       <c r="D632" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
       <c r="E632" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A633" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B633" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
       <c r="C633" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="D633" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
       <c r="E633" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A634" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B634" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
       <c r="C634" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="D634" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="E634" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A635" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B635" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="C635" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="D635" t="s">
         <v>354</v>
       </c>
       <c r="E635" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A636" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B636" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="D636" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
       <c r="E636" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A637" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B637" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="D637" t="s">
         <v>48</v>
       </c>
       <c r="E637" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A638" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B638" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="C638" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="D638" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="E638" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A639" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B639" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="C639" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="D639" t="s">
         <v>114</v>
       </c>
       <c r="E639" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A640" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B640" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
       <c r="C640" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="D640" t="s">
         <v>271</v>
       </c>
       <c r="E640" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A641" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B641" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="C641" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
       <c r="D641" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="E641" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A642" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B642" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="D642" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
       <c r="E642" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A643" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B643" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="C643" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="D643" t="s">
         <v>354</v>
       </c>
       <c r="E643" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A644" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B644" t="s">
-        <v>2239</v>
+        <v>2235</v>
       </c>
       <c r="D644" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
       <c r="E644" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A645" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B645" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="C645" t="s">
-        <v>2242</v>
+        <v>2238</v>
       </c>
       <c r="D645" t="s">
-        <v>2243</v>
+        <v>2239</v>
       </c>
       <c r="E645" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A646" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B646" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="C646" t="s">
-        <v>2246</v>
+        <v>2242</v>
       </c>
       <c r="D646" t="s">
         <v>400</v>
       </c>
       <c r="E646" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A647" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B647" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
       <c r="C647" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
       <c r="D647" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="E647" t="s">
-        <v>2250</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A648" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B648" t="s">
-        <v>2251</v>
+        <v>2247</v>
       </c>
       <c r="D648" t="s">
         <v>906</v>
       </c>
       <c r="E648" t="s">
-        <v>2252</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A649" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B649" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
       <c r="C649" t="s">
-        <v>2254</v>
+        <v>2250</v>
       </c>
       <c r="D649" t="s">
         <v>114</v>
       </c>
       <c r="E649" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A650" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B650" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C650" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="D650" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="E650" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A651" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B651" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
       <c r="C651" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="D651" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="E651" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A652" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B652" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
       <c r="D652" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
       <c r="E652" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A653" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B653" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
       <c r="C653" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
       <c r="D653" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
       <c r="E653" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A654" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B654" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="C654" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
       <c r="D654" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="E654" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A655" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B655" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
       <c r="C655" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="D655" t="s">
         <v>354</v>
       </c>
       <c r="E655" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A656" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B656" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
       <c r="C656" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
       <c r="D656" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
       <c r="E656" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A657" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B657" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="C657" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="D657" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
       <c r="E657" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A658" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B658" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
       <c r="C658" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
       <c r="D658" t="s">
         <v>68</v>
       </c>
       <c r="E658" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A659" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B659" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
       <c r="C659" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
       <c r="D659" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
       <c r="E659" t="s">
-        <v>2292</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A660" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B660" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="C660" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="D660" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E660" t="s">
         <v>2291</v>
-      </c>
-      <c r="E660" t="s">
-        <v>2295</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A661" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B661" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="C661" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="D661" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="E661" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A662" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B662" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="C662" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="D662" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
       <c r="E662" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A663" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B663" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="C663" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="D663" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="E663" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A664" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B664" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="C664" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="D664" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="E664" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A665" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B665" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="C665" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="D665" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="E665" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A666" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B666" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="C666" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="D666" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="E666" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A667" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B667" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
       <c r="C667" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="D667" t="s">
         <v>354</v>
       </c>
       <c r="E667" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A668" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B668" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
       <c r="C668" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="D668" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
       <c r="E668" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A669" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B669" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
       <c r="C669" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
       <c r="D669" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
       <c r="E669" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A670" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B670" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="C670" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
       <c r="D670" t="s">
         <v>354</v>
       </c>
       <c r="E670" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A671" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B671" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="C671" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="D671" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="E671" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A672" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B672" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
       <c r="C672" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
       <c r="D672" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
       <c r="E672" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A673" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B673" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
       <c r="C673" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
       <c r="D673" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
       <c r="E673" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A674" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B674" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
       <c r="C674" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
       <c r="D674" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="E674" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A675" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B675" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
       <c r="C675" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
       <c r="D675" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
       <c r="E675" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A676" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B676" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="C676" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
       <c r="D676" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="E676" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A677" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B677" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
       <c r="C677" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="D677" t="s">
         <v>133</v>
       </c>
       <c r="E677" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A678" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B678" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="C678" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="D678" t="s">
         <v>133</v>
       </c>
       <c r="E678" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A679" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B679" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="C679" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="D679" t="s">
         <v>133</v>
       </c>
       <c r="E679" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A680" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B680" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="C680" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="D680" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="E680" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A681" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B681" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="C681" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="D681" t="s">
         <v>118</v>
       </c>
       <c r="E681" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A682" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B682" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="D682" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="E682" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A683" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B683" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="C683" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="D683" t="s">
         <v>110</v>
       </c>
       <c r="E683" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A684" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B684" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C684" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D684" t="s">
+        <v>2377</v>
+      </c>
+      <c r="E684" t="s">
         <v>2378</v>
-      </c>
-      <c r="B684" t="s">
-        <v>2379</v>
-      </c>
-      <c r="C684" t="s">
-        <v>2380</v>
-      </c>
-      <c r="D684" t="s">
-        <v>2381</v>
-      </c>
-      <c r="E684" t="s">
-        <v>2382</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A685" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B685" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
       <c r="C685" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
       <c r="D685" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
       <c r="E685" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A686" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B686" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
       <c r="C686" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="D686" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
       <c r="E686" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A687" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B687" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="C687" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
       <c r="D687" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="E687" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A688" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B688" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="C688" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="D688" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="E688" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A689" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B689" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="C689" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="D689" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
       <c r="E689" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A690" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B690" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
       <c r="C690" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
       <c r="D690" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="E690" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A691" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B691" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
       <c r="C691" t="s">
-        <v>2408</v>
+        <v>2404</v>
       </c>
       <c r="D691" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
       <c r="E691" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A692" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B692" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="C692" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="D692" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="E692" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A693" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B693" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="C693" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="D693" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="E693" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A694" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B694" t="s">
-        <v>2419</v>
+        <v>2415</v>
       </c>
       <c r="C694" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
       <c r="D694" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
       <c r="E694" t="s">
-        <v>2422</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A695" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B695" t="s">
-        <v>2423</v>
+        <v>2419</v>
       </c>
       <c r="C695" t="s">
-        <v>2424</v>
+        <v>2420</v>
       </c>
       <c r="D695" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="E695" t="s">
-        <v>2426</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A696" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B696" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
       <c r="C696" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
       <c r="D696" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
       <c r="E696" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A697" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B697" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
       <c r="C697" t="s">
-        <v>2432</v>
+        <v>2428</v>
       </c>
       <c r="D697" t="s">
-        <v>2433</v>
+        <v>2429</v>
       </c>
       <c r="E697" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A698" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B698" t="s">
-        <v>2435</v>
+        <v>2431</v>
       </c>
       <c r="C698" t="s">
-        <v>2436</v>
+        <v>2432</v>
       </c>
       <c r="D698" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="E698" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A699" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B699" t="s">
-        <v>2439</v>
+        <v>2435</v>
       </c>
       <c r="C699" t="s">
-        <v>2440</v>
+        <v>2436</v>
       </c>
       <c r="E699" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A700" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="B700" t="s">
-        <v>2443</v>
+        <v>2439</v>
       </c>
       <c r="C700" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="E700" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A701" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B701" t="s">
         <v>2442</v>
       </c>
-      <c r="B701" t="s">
-        <v>2446</v>
-      </c>
       <c r="C701" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
       <c r="D701" t="s">
-        <v>2448</v>
+        <v>2444</v>
       </c>
       <c r="E701" t="s">
-        <v>2449</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A702" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="B702" t="s">
-        <v>2450</v>
+        <v>2446</v>
       </c>
       <c r="C702" t="s">
-        <v>2451</v>
+        <v>2447</v>
       </c>
       <c r="D702" t="s">
         <v>400</v>
       </c>
       <c r="E702" t="s">
-        <v>2452</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A703" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="B703" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="C703" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
       <c r="D703" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="E703" t="s">
-        <v>2455</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A704" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="B704" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
       <c r="C704" t="s">
-        <v>2457</v>
+        <v>2453</v>
       </c>
       <c r="D704" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="E704" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A705" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="B705" t="s">
-        <v>2459</v>
+        <v>2455</v>
       </c>
       <c r="C705" t="s">
-        <v>2460</v>
+        <v>2456</v>
       </c>
       <c r="D705" t="s">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="E705" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A706" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B706" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C706" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D706" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E706" t="s">
         <v>2463</v>
-      </c>
-      <c r="B706" t="s">
-        <v>2464</v>
-      </c>
-      <c r="C706" t="s">
-        <v>2465</v>
-      </c>
-      <c r="D706" t="s">
-        <v>2466</v>
-      </c>
-      <c r="E706" t="s">
-        <v>2467</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A707" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B707" t="s">
-        <v>2468</v>
+        <v>2464</v>
       </c>
       <c r="C707" t="s">
-        <v>2469</v>
+        <v>2465</v>
       </c>
       <c r="D707" t="s">
-        <v>2470</v>
+        <v>2466</v>
       </c>
       <c r="E707" t="s">
-        <v>2471</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A708" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B708" t="s">
-        <v>2472</v>
+        <v>2468</v>
       </c>
       <c r="C708" t="s">
-        <v>2473</v>
+        <v>2469</v>
       </c>
       <c r="D708" t="s">
-        <v>2474</v>
+        <v>2470</v>
       </c>
       <c r="E708" t="s">
-        <v>2475</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A709" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B709" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
       <c r="D709" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="E709" t="s">
-        <v>2478</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A710" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B710" t="s">
-        <v>2479</v>
+        <v>2475</v>
       </c>
       <c r="D710" t="s">
-        <v>2480</v>
+        <v>2476</v>
       </c>
       <c r="E710" t="s">
-        <v>2481</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A711" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B711" t="s">
-        <v>2482</v>
+        <v>2478</v>
       </c>
       <c r="D711" t="s">
-        <v>2483</v>
+        <v>2479</v>
       </c>
       <c r="E711" t="s">
-        <v>2484</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A712" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B712" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
       <c r="C712" t="s">
-        <v>2486</v>
+        <v>2482</v>
       </c>
       <c r="D712" t="s">
-        <v>2487</v>
+        <v>2483</v>
       </c>
       <c r="E712" t="s">
-        <v>2488</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A713" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B713" t="s">
-        <v>2489</v>
+        <v>2485</v>
       </c>
       <c r="C713" t="s">
-        <v>2490</v>
+        <v>2486</v>
       </c>
       <c r="D713" t="s">
         <v>133</v>
       </c>
       <c r="E713" t="s">
-        <v>2491</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A714" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B714" t="s">
-        <v>2492</v>
+        <v>2488</v>
       </c>
       <c r="C714" t="s">
-        <v>2493</v>
+        <v>2489</v>
       </c>
       <c r="D714" t="s">
         <v>133</v>
       </c>
       <c r="E714" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A715" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B715" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
       <c r="C715" t="s">
-        <v>2496</v>
+        <v>2492</v>
       </c>
       <c r="D715" t="s">
-        <v>2497</v>
+        <v>2493</v>
       </c>
       <c r="E715" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A716" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B716" t="s">
-        <v>2499</v>
+        <v>2495</v>
       </c>
       <c r="D716" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="E716" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A717" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B717" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="D717" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="E717" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A718" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B718" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
       <c r="C718" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="D718" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
       <c r="E718" t="s">
-        <v>2507</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A719" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B719" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="C719" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="D719" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="E719" t="s">
-        <v>2511</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A720" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B720" t="s">
-        <v>2512</v>
+        <v>2508</v>
       </c>
       <c r="C720" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="D720" t="s">
         <v>110</v>
       </c>
       <c r="E720" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A721" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B721" t="s">
-        <v>2515</v>
+        <v>2511</v>
       </c>
       <c r="C721" t="s">
-        <v>2516</v>
+        <v>2512</v>
       </c>
       <c r="D721" t="s">
-        <v>2517</v>
+        <v>2513</v>
       </c>
       <c r="E721" t="s">
-        <v>2518</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A722" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B722" t="s">
-        <v>2519</v>
+        <v>2515</v>
       </c>
       <c r="D722" t="s">
-        <v>2520</v>
+        <v>2516</v>
       </c>
       <c r="E722" t="s">
-        <v>2521</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A723" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B723" t="s">
-        <v>2522</v>
+        <v>2518</v>
       </c>
       <c r="D723" t="s">
-        <v>2523</v>
+        <v>2519</v>
       </c>
       <c r="E723" t="s">
-        <v>2524</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A724" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B724" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="C724" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
       <c r="D724" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
       <c r="E724" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A725" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B725" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="C725" t="s">
-        <v>2530</v>
+        <v>2526</v>
       </c>
       <c r="D725" t="s">
-        <v>2531</v>
+        <v>2527</v>
       </c>
       <c r="E725" t="s">
-        <v>2532</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A726" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B726" t="s">
-        <v>2533</v>
+        <v>2529</v>
       </c>
       <c r="D726" t="s">
-        <v>2534</v>
+        <v>2530</v>
       </c>
       <c r="E726" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A727" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B727" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="C727" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="D727" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
       <c r="E727" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A728" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B728" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
       <c r="C728" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
       <c r="D728" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
       <c r="E728" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A729" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B729" t="s">
-        <v>2544</v>
+        <v>2540</v>
       </c>
       <c r="C729" t="s">
-        <v>2545</v>
+        <v>2541</v>
       </c>
       <c r="D729" t="s">
-        <v>2546</v>
+        <v>2542</v>
       </c>
       <c r="E729" t="s">
-        <v>2547</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A730" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B730" t="s">
-        <v>2548</v>
+        <v>2544</v>
       </c>
       <c r="C730" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
       <c r="D730" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
       <c r="E730" t="s">
-        <v>2551</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A731" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B731" t="s">
-        <v>2552</v>
+        <v>2548</v>
       </c>
       <c r="C731" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
       <c r="D731" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
       <c r="E731" t="s">
-        <v>2555</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A732" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B732" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
       <c r="C732" t="s">
-        <v>2557</v>
+        <v>2553</v>
       </c>
       <c r="D732" t="s">
-        <v>2558</v>
+        <v>2554</v>
       </c>
       <c r="E732" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A733" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B733" t="s">
-        <v>2560</v>
+        <v>2556</v>
       </c>
       <c r="C733" t="s">
-        <v>2561</v>
+        <v>2557</v>
       </c>
       <c r="D733" t="s">
-        <v>2562</v>
+        <v>2558</v>
       </c>
       <c r="E733" t="s">
-        <v>2563</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A734" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B734" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="C734" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="D734" t="s">
-        <v>2566</v>
+        <v>2562</v>
       </c>
       <c r="E734" t="s">
-        <v>2567</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A735" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B735" t="s">
-        <v>2568</v>
+        <v>2564</v>
       </c>
       <c r="C735" t="s">
-        <v>2569</v>
+        <v>2565</v>
       </c>
       <c r="D735" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="E735" t="s">
-        <v>2571</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A736" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B736" t="s">
-        <v>2573</v>
+        <v>2569</v>
       </c>
       <c r="C736" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="D736" t="s">
         <v>133</v>
       </c>
       <c r="E736" t="s">
-        <v>2575</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A737" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B737" t="s">
         <v>2572</v>
       </c>
-      <c r="B737" t="s">
-        <v>2576</v>
-      </c>
       <c r="C737" t="s">
-        <v>2577</v>
+        <v>2573</v>
       </c>
       <c r="D737" t="s">
         <v>110</v>
       </c>
       <c r="E737" t="s">
-        <v>2578</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A738" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B738" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
       <c r="C738" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="D738" t="s">
         <v>110</v>
       </c>
       <c r="E738" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A739" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B739" t="s">
-        <v>2582</v>
+        <v>2578</v>
       </c>
       <c r="C739" t="s">
-        <v>2583</v>
+        <v>2579</v>
       </c>
       <c r="D739" t="s">
-        <v>2584</v>
+        <v>2580</v>
       </c>
       <c r="E739" t="s">
-        <v>2585</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A740" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B740" t="s">
-        <v>2586</v>
+        <v>2582</v>
       </c>
       <c r="C740" t="s">
-        <v>2587</v>
+        <v>2583</v>
       </c>
       <c r="D740" t="s">
+        <v>2580</v>
+      </c>
+      <c r="E740" t="s">
         <v>2584</v>
-      </c>
-      <c r="E740" t="s">
-        <v>2588</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A741" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B741" t="s">
-        <v>2589</v>
+        <v>2585</v>
       </c>
       <c r="C741" t="s">
-        <v>2590</v>
+        <v>2586</v>
       </c>
       <c r="D741" t="s">
         <v>141</v>
       </c>
       <c r="E741" t="s">
-        <v>2591</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A742" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B742" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
       <c r="C742" t="s">
-        <v>2593</v>
+        <v>2589</v>
       </c>
       <c r="D742" t="s">
         <v>133</v>
       </c>
       <c r="E742" t="s">
-        <v>2594</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A743" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B743" t="s">
-        <v>2595</v>
+        <v>2591</v>
       </c>
       <c r="C743" t="s">
-        <v>2596</v>
+        <v>2592</v>
       </c>
       <c r="D743" t="s">
         <v>133</v>
       </c>
       <c r="E743" t="s">
-        <v>2597</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A744" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B744" t="s">
-        <v>2598</v>
+        <v>2594</v>
       </c>
       <c r="C744" t="s">
-        <v>2599</v>
+        <v>2595</v>
       </c>
       <c r="D744" t="s">
         <v>133</v>
       </c>
       <c r="E744" t="s">
-        <v>2600</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A745" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B745" t="s">
-        <v>2601</v>
+        <v>2597</v>
       </c>
       <c r="C745" t="s">
-        <v>2602</v>
+        <v>2598</v>
       </c>
       <c r="D745" t="s">
-        <v>2603</v>
+        <v>2599</v>
       </c>
       <c r="E745" t="s">
-        <v>2604</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A746" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B746" t="s">
-        <v>2605</v>
+        <v>2601</v>
       </c>
       <c r="C746" t="s">
-        <v>2606</v>
+        <v>2602</v>
       </c>
       <c r="D746" t="s">
-        <v>2607</v>
+        <v>2603</v>
       </c>
       <c r="E746" t="s">
-        <v>2608</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A747" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B747" t="s">
-        <v>2609</v>
+        <v>2605</v>
       </c>
       <c r="C747" t="s">
-        <v>2610</v>
+        <v>2606</v>
       </c>
       <c r="D747" t="s">
-        <v>2611</v>
+        <v>2607</v>
       </c>
       <c r="E747" t="s">
-        <v>2612</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A748" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B748" t="s">
-        <v>2613</v>
+        <v>2609</v>
       </c>
       <c r="C748" t="s">
-        <v>2614</v>
+        <v>2610</v>
       </c>
       <c r="D748" t="s">
         <v>110</v>
       </c>
       <c r="E748" t="s">
-        <v>2615</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A749" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B749" t="s">
-        <v>2616</v>
+        <v>2612</v>
       </c>
       <c r="C749" t="s">
-        <v>2617</v>
+        <v>2613</v>
       </c>
       <c r="D749" t="s">
         <v>133</v>
       </c>
       <c r="E749" t="s">
-        <v>2618</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A750" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B750" t="s">
-        <v>2619</v>
+        <v>2615</v>
       </c>
       <c r="C750" t="s">
-        <v>2620</v>
+        <v>2616</v>
       </c>
       <c r="D750" t="s">
-        <v>2621</v>
+        <v>2617</v>
       </c>
       <c r="E750" t="s">
-        <v>2622</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A751" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B751" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C751" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D751" t="s">
+        <v>2622</v>
+      </c>
+      <c r="E751" t="s">
         <v>2623</v>
-      </c>
-      <c r="B751" t="s">
-        <v>2624</v>
-      </c>
-      <c r="C751" t="s">
-        <v>2625</v>
-      </c>
-      <c r="D751" t="s">
-        <v>2626</v>
-      </c>
-      <c r="E751" t="s">
-        <v>2627</v>
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A752" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B752" t="s">
-        <v>2628</v>
+        <v>2624</v>
       </c>
       <c r="C752" t="s">
-        <v>2629</v>
+        <v>2625</v>
       </c>
       <c r="D752" t="s">
         <v>133</v>
       </c>
       <c r="E752" t="s">
-        <v>2630</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A753" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B753" t="s">
-        <v>2631</v>
+        <v>2627</v>
       </c>
       <c r="C753" t="s">
-        <v>2632</v>
+        <v>2628</v>
       </c>
       <c r="D753" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="E753" t="s">
-        <v>2633</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A754" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B754" t="s">
-        <v>2634</v>
+        <v>2630</v>
       </c>
       <c r="C754" t="s">
-        <v>2635</v>
+        <v>2631</v>
       </c>
       <c r="E754" t="s">
-        <v>2636</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A755" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B755" t="s">
-        <v>2637</v>
+        <v>2633</v>
       </c>
       <c r="C755" t="s">
-        <v>2638</v>
+        <v>2634</v>
       </c>
       <c r="D755" t="s">
         <v>133</v>
       </c>
       <c r="E755" t="s">
-        <v>2639</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A756" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B756" t="s">
-        <v>2640</v>
+        <v>2636</v>
       </c>
       <c r="C756" t="s">
-        <v>2641</v>
+        <v>2637</v>
       </c>
       <c r="D756" t="s">
-        <v>2642</v>
+        <v>2638</v>
       </c>
       <c r="E756" t="s">
-        <v>2643</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A757" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B757" t="s">
-        <v>2644</v>
+        <v>2640</v>
       </c>
       <c r="C757" t="s">
-        <v>2645</v>
+        <v>2641</v>
       </c>
       <c r="E757" t="s">
-        <v>2646</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A758" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B758" t="s">
-        <v>2647</v>
+        <v>2643</v>
       </c>
       <c r="E758" t="s">
-        <v>2648</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A759" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B759" t="s">
-        <v>2649</v>
+        <v>2645</v>
       </c>
       <c r="C759" t="s">
-        <v>2650</v>
+        <v>2646</v>
       </c>
       <c r="D759" t="s">
         <v>1140</v>
       </c>
       <c r="E759" t="s">
-        <v>2651</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A760" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B760" t="s">
-        <v>2652</v>
+        <v>2648</v>
       </c>
       <c r="C760" t="s">
-        <v>2653</v>
+        <v>2649</v>
       </c>
       <c r="D760" t="s">
         <v>118</v>
       </c>
       <c r="E760" t="s">
-        <v>2654</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A761" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B761" t="s">
-        <v>2655</v>
+        <v>2651</v>
       </c>
       <c r="C761" t="s">
-        <v>2656</v>
+        <v>2652</v>
       </c>
       <c r="D761" t="s">
-        <v>2657</v>
+        <v>2653</v>
       </c>
       <c r="E761" t="s">
-        <v>2658</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A762" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B762" t="s">
-        <v>2659</v>
+        <v>2655</v>
       </c>
       <c r="C762" t="s">
-        <v>2660</v>
+        <v>2656</v>
       </c>
       <c r="E762" t="s">
-        <v>2661</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A763" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B763" t="s">
-        <v>2662</v>
+        <v>2658</v>
       </c>
       <c r="D763" t="s">
-        <v>2663</v>
+        <v>2659</v>
       </c>
       <c r="E763" t="s">
-        <v>2664</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A764" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B764" t="s">
-        <v>2665</v>
+        <v>2661</v>
       </c>
       <c r="D764" t="s">
         <v>110</v>
       </c>
       <c r="E764" t="s">
-        <v>2666</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A765" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B765" t="s">
-        <v>2667</v>
+        <v>2663</v>
       </c>
       <c r="E765" t="s">
-        <v>2668</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A766" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B766" t="s">
-        <v>2669</v>
+        <v>2665</v>
       </c>
       <c r="C766" t="s">
-        <v>2670</v>
+        <v>2666</v>
       </c>
       <c r="E766" t="s">
-        <v>2671</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A767" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B767" t="s">
-        <v>2672</v>
+        <v>2668</v>
       </c>
       <c r="C767" t="s">
-        <v>2673</v>
+        <v>2669</v>
       </c>
       <c r="D767" t="s">
-        <v>2674</v>
+        <v>2670</v>
       </c>
       <c r="E767" t="s">
-        <v>2675</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A768" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B768" t="s">
-        <v>2676</v>
+        <v>2672</v>
       </c>
       <c r="C768" t="s">
-        <v>2677</v>
+        <v>2673</v>
       </c>
       <c r="D768" t="s">
+        <v>2670</v>
+      </c>
+      <c r="E768" t="s">
         <v>2674</v>
-      </c>
-      <c r="E768" t="s">
-        <v>2678</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A769" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B769" t="s">
-        <v>2679</v>
+        <v>2675</v>
       </c>
       <c r="C769" t="s">
-        <v>2680</v>
+        <v>2676</v>
       </c>
       <c r="D769" t="s">
-        <v>2674</v>
+        <v>2670</v>
       </c>
       <c r="E769" t="s">
-        <v>2681</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A770" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B770" t="s">
-        <v>2682</v>
+        <v>2678</v>
       </c>
       <c r="C770" t="s">
-        <v>2683</v>
+        <v>2679</v>
       </c>
       <c r="D770" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
       <c r="E770" t="s">
-        <v>2684</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A771" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B771" t="s">
-        <v>2685</v>
+        <v>2681</v>
       </c>
       <c r="C771" t="s">
-        <v>2686</v>
+        <v>2682</v>
       </c>
       <c r="D771" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
       <c r="E771" t="s">
-        <v>2687</v>
+        <v>2683</v>
       </c>
     </row>
   </sheetData>
